--- a/doc/01平台/版本规划.xlsx
+++ b/doc/01平台/版本规划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28695" windowHeight="12630"/>
+    <workbookView windowWidth="28080" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="项目规划" sheetId="1" r:id="rId1"/>
@@ -1087,10 +1087,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1126,13 +1126,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1140,7 +1133,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1148,30 +1141,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1185,14 +1155,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1214,6 +1177,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -1227,21 +1205,6 @@
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1261,9 +1224,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1314,7 +1314,163 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1326,139 +1482,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1470,31 +1494,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2048,6 +2048,45 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2063,11 +2102,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2087,41 +2132,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2134,21 +2149,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -2157,10 +2157,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2169,133 +2169,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="49" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="24" borderId="49" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="52" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="48" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="50" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="45" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4667,7 +4667,7 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:I2"/>
+      <selection activeCell="Q18" sqref="Q18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4955,7 +4955,7 @@
       </c>
       <c r="G22" s="42"/>
       <c r="H22" s="44" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="I22" s="110"/>
     </row>
@@ -5089,7 +5089,7 @@
       </c>
       <c r="G32" s="42"/>
       <c r="H32" s="45" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="I32" s="67"/>
     </row>

--- a/doc/01平台/版本规划.xlsx
+++ b/doc/01平台/版本规划.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="26124"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fomjar/GitHub/fomjar/doc/01平台/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="12630"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目规划" sheetId="1" r:id="rId1"/>
@@ -17,11 +22,16 @@
     <sheet name="BUG LIST" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="144525" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="326">
   <si>
     <t>微信接入7-8月份项目规划</t>
   </si>
@@ -64,9 +74,6 @@
   </si>
   <si>
     <t>8月上旬</t>
-  </si>
-  <si>
-    <t>□</t>
   </si>
   <si>
     <t>用户管理</t>
@@ -192,12 +199,6 @@
     <t>待规划特性</t>
   </si>
   <si>
-    <t>用户第一次租某游戏给12小时优惠时间</t>
-  </si>
-  <si>
-    <t>自动业务定时检测AB租绑定状态</t>
-  </si>
-  <si>
     <t>账号增加备注字段</t>
   </si>
   <si>
@@ -1081,18 +1082,50 @@
   <si>
     <t>搜索大小写不敏感统一整改</t>
   </si>
+  <si>
+    <t>■</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>■</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>□</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>解决wa验证码问题</t>
+    <rPh sb="0" eb="1">
+      <t>jie jue</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>yan zheng ma</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>wen ti</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>转入新公众号</t>
+    <rPh sb="0" eb="1">
+      <t>zhuan ru</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>xin</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>gong zhong hao</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1125,151 +1158,13 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="39">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1284,13 +1179,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.8"/>
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1302,7 +1197,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.05"/>
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1312,194 +1207,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="53">
+  <borders count="45">
     <border>
       <left/>
       <right/>
@@ -2051,255 +1760,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="49" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="51" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="52" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="45" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="47" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="50" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="46" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="48" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2318,6 +1785,318 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2327,18 +2106,12 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -2348,349 +2121,22 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium7"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
@@ -2711,8 +2157,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="860425" y="1273175"/>
-          <a:ext cx="5089525" cy="885825"/>
+          <a:off x="860425" y="1298575"/>
+          <a:ext cx="5089525" cy="917575"/>
           <a:chOff x="1300" y="1705"/>
           <a:chExt cx="8015" cy="1395"/>
         </a:xfrm>
@@ -2723,14 +2169,14 @@
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
-          <a:xfrm rot="0">
+          <a:xfrm>
             <a:off x="1300" y="2090"/>
             <a:ext cx="8015" cy="480"/>
             <a:chOff x="1375" y="1945"/>
             <a:chExt cx="8015" cy="480"/>
           </a:xfrm>
         </xdr:grpSpPr>
-        <xdr:cxnSp>
+        <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
             <xdr:cNvPr id="2" name="直接连接符 1"/>
             <xdr:cNvCxnSpPr/>
@@ -2759,7 +2205,7 @@
             </a:fontRef>
           </xdr:style>
         </xdr:cxnSp>
-        <xdr:cxnSp>
+        <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
             <xdr:cNvPr id="3" name="直接连接符 2"/>
             <xdr:cNvCxnSpPr/>
@@ -2788,7 +2234,7 @@
             </a:fontRef>
           </xdr:style>
         </xdr:cxnSp>
-        <xdr:cxnSp>
+        <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
             <xdr:cNvPr id="4" name="直接连接符 3"/>
             <xdr:cNvCxnSpPr/>
@@ -2817,7 +2263,7 @@
             </a:fontRef>
           </xdr:style>
         </xdr:cxnSp>
-        <xdr:cxnSp>
+        <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
             <xdr:cNvPr id="5" name="直接连接符 4"/>
             <xdr:cNvCxnSpPr/>
@@ -2846,7 +2292,7 @@
             </a:fontRef>
           </xdr:style>
         </xdr:cxnSp>
-        <xdr:cxnSp>
+        <xdr:cxnSp macro="">
           <xdr:nvCxnSpPr>
             <xdr:cNvPr id="6" name="直接连接符 5"/>
             <xdr:cNvCxnSpPr/>
@@ -2882,14 +2328,14 @@
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
-          <a:xfrm rot="0">
+          <a:xfrm>
             <a:off x="1381" y="2467"/>
             <a:ext cx="3864" cy="628"/>
             <a:chOff x="1456" y="2322"/>
             <a:chExt cx="3864" cy="628"/>
           </a:xfrm>
         </xdr:grpSpPr>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="10" name="右大括号 9"/>
             <xdr:cNvSpPr/>
@@ -2919,6 +2365,7 @@
           </xdr:style>
           <xdr:txBody>
             <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
             <a:p>
               <a:pPr algn="l"/>
               <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
@@ -2928,7 +2375,7 @@
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="11" name="文本框 10"/>
             <xdr:cNvSpPr txBox="1"/>
@@ -2960,6 +2407,7 @@
             <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0">
               <a:noAutofit/>
             </a:bodyPr>
+            <a:lstStyle/>
             <a:p>
               <a:pPr algn="ctr"/>
               <a:r>
@@ -2969,10 +2417,6 @@
                 </a:rPr>
                 <a:t>基础设施搭建</a:t>
               </a:r>
-              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
-                <a:latin typeface="黑体" charset="0"/>
-                <a:ea typeface="黑体" charset="0"/>
-              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -2983,14 +2427,14 @@
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
-          <a:xfrm rot="0">
+          <a:xfrm>
             <a:off x="5437" y="2466"/>
             <a:ext cx="2031" cy="629"/>
             <a:chOff x="-2457" y="2321"/>
             <a:chExt cx="6885" cy="629"/>
           </a:xfrm>
         </xdr:grpSpPr>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="14" name="右大括号 13"/>
             <xdr:cNvSpPr/>
@@ -3131,7 +2575,7 @@
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="15" name="文本框 14"/>
             <xdr:cNvSpPr txBox="1"/>
@@ -3271,10 +2715,6 @@
                 </a:rPr>
                 <a:t>规范、内容补充</a:t>
               </a:r>
-              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
-                <a:latin typeface="黑体" charset="0"/>
-                <a:ea typeface="黑体" charset="0"/>
-              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
@@ -3285,14 +2725,14 @@
           <xdr:cNvGrpSpPr/>
         </xdr:nvGrpSpPr>
         <xdr:grpSpPr>
-          <a:xfrm rot="0">
+          <a:xfrm>
             <a:off x="7611" y="2471"/>
             <a:ext cx="1613" cy="629"/>
             <a:chOff x="-1441" y="2321"/>
             <a:chExt cx="8007" cy="629"/>
           </a:xfrm>
         </xdr:grpSpPr>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="17" name="右大括号 16"/>
             <xdr:cNvSpPr/>
@@ -3433,7 +2873,7 @@
             </a:p>
           </xdr:txBody>
         </xdr:sp>
-        <xdr:sp>
+        <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="18" name="文本框 17"/>
             <xdr:cNvSpPr txBox="1"/>
@@ -3573,15 +3013,11 @@
                 </a:rPr>
                 <a:t>公众号运作</a:t>
               </a:r>
-              <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100">
-                <a:latin typeface="黑体" charset="0"/>
-                <a:ea typeface="黑体" charset="0"/>
-              </a:endParaRPr>
             </a:p>
           </xdr:txBody>
         </xdr:sp>
       </xdr:grpSp>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="21" name="线形标注 2 20"/>
           <xdr:cNvSpPr/>
@@ -3611,6 +3047,7 @@
         </xdr:style>
         <xdr:txBody>
           <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
           <a:p>
             <a:pPr algn="ctr"/>
             <a:r>
@@ -3648,7 +3085,7 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="22" name="线形标注 2 21"/>
           <xdr:cNvSpPr/>
@@ -3821,7 +3258,7 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="23" name="线形标注 2 22"/>
           <xdr:cNvSpPr/>
@@ -3987,7 +3424,7 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="24" name="线形标注 2 23"/>
           <xdr:cNvSpPr/>
@@ -4153,7 +3590,7 @@
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:sp>
+      <xdr:sp macro="" textlink="">
         <xdr:nvSpPr>
           <xdr:cNvPr id="25" name="线形标注 2 24"/>
           <xdr:cNvSpPr/>
@@ -4298,14 +3735,10 @@
               </a:rPr>
               <a:t>now</a:t>
             </a:r>
-            <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100">
-              <a:latin typeface="黑体" charset="0"/>
-              <a:ea typeface="黑体" charset="0"/>
-            </a:endParaRPr>
           </a:p>
         </xdr:txBody>
       </xdr:sp>
-      <xdr:cxnSp>
+      <xdr:cxnSp macro="">
         <xdr:nvCxnSpPr>
           <xdr:cNvPr id="20" name="直接连接符 19"/>
           <xdr:cNvCxnSpPr/>
@@ -4344,9 +3777,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="表2" displayName="表2" ref="A1:H75" totalsRowShown="0">
   <autoFilter ref="A1:H75">
     <filterColumn colId="4">
-      <customFilters>
-        <customFilter operator="equal" val="0.0.4"/>
-      </customFilters>
+      <filters>
+        <filter val="0.0.4"/>
+      </filters>
     </filterColumn>
   </autoFilter>
   <tableColumns count="8">
@@ -4662,648 +4095,630 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q18" sqref="Q18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H22" sqref="H22:I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="61"/>
-    </row>
-    <row r="2" ht="14.25" spans="1:9">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="62"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="21" t="s">
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="44"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="47"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="B3" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="85"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="86"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="78"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="86"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="56"/>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="96"/>
-      <c r="H6" s="96"/>
-      <c r="I6" s="106"/>
-    </row>
-    <row r="7" ht="14.25" spans="1:9">
-      <c r="A7" s="56"/>
-      <c r="B7" s="96"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="96"/>
-      <c r="E7" s="96"/>
-      <c r="F7" s="96"/>
-      <c r="G7" s="96"/>
-      <c r="H7" s="96"/>
-      <c r="I7" s="106"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="9" t="s">
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="50"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="30"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="52"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="30"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="52"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="31"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="53"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="54"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="31"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="54"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="97"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="98"/>
-      <c r="H8" s="98"/>
-      <c r="I8" s="107"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="99"/>
-      <c r="B9" s="100"/>
-      <c r="C9" s="101"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="101"/>
-      <c r="F9" s="101"/>
-      <c r="G9" s="101"/>
-      <c r="H9" s="101"/>
-      <c r="I9" s="108"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="99"/>
-      <c r="B10" s="100"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="101"/>
-      <c r="F10" s="101"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="108"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="99"/>
-      <c r="B11" s="100"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="101"/>
-      <c r="F11" s="101"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="108"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="99"/>
-      <c r="B12" s="100"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="101"/>
-      <c r="F12" s="101"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="108"/>
-    </row>
-    <row r="13" ht="14.25" spans="1:9">
-      <c r="A13" s="102"/>
-      <c r="B13" s="103"/>
-      <c r="C13" s="104"/>
-      <c r="D13" s="104"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="104"/>
-      <c r="H13" s="104"/>
-      <c r="I13" s="109"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="52" t="s">
+      <c r="B8" s="59"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
+      <c r="G8" s="60"/>
+      <c r="H8" s="60"/>
+      <c r="I8" s="61"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="33"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="63"/>
+      <c r="G9" s="63"/>
+      <c r="H9" s="63"/>
+      <c r="I9" s="64"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="33"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="63"/>
+      <c r="F10" s="63"/>
+      <c r="G10" s="63"/>
+      <c r="H10" s="63"/>
+      <c r="I10" s="64"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="33"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="63"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="63"/>
+      <c r="H11" s="63"/>
+      <c r="I11" s="64"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="33"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="63"/>
+      <c r="F12" s="63"/>
+      <c r="G12" s="63"/>
+      <c r="H12" s="63"/>
+      <c r="I12" s="64"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="34"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="66"/>
+      <c r="E13" s="66"/>
+      <c r="F13" s="66"/>
+      <c r="G13" s="66"/>
+      <c r="H13" s="66"/>
+      <c r="I13" s="67"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="81" t="s">
+      <c r="B14" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="81" t="s">
+      <c r="C14" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="81" t="s">
+      <c r="D14" s="19"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81" t="s">
+      <c r="G14" s="19"/>
+      <c r="H14" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="88"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="23"/>
-      <c r="B15" s="42" t="s">
+      <c r="I14" s="20"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="36"/>
+      <c r="B15" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="105" t="s">
+      <c r="C15" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="105"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="42" t="s">
+      <c r="D15" s="55"/>
+      <c r="E15" s="55"/>
+      <c r="F15" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42" t="s">
+      <c r="G15" s="40"/>
+      <c r="H15" s="40" t="s">
+        <v>322</v>
+      </c>
+      <c r="I15" s="56"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="36"/>
+      <c r="B16" s="40"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="55"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="56"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="36"/>
+      <c r="B17" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="67"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="23"/>
-      <c r="B16" s="42"/>
-      <c r="C16" s="105"/>
-      <c r="D16" s="105"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="42"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="67"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="23"/>
-      <c r="B17" s="42" t="s">
+      <c r="C17" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="C17" s="105" t="s">
+      <c r="D17" s="55"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="105"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="42" t="s">
+      <c r="G17" s="40"/>
+      <c r="H17" s="57" t="s">
         <v>15</v>
       </c>
-      <c r="G17" s="42"/>
-      <c r="H17" s="44" t="s">
+      <c r="I17" s="58"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" s="36"/>
+      <c r="B18" s="40"/>
+      <c r="C18" s="55"/>
+      <c r="D18" s="55"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="58"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="36"/>
+      <c r="B19" s="40"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="55"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="58"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="36"/>
+      <c r="B20" s="40"/>
+      <c r="C20" s="55"/>
+      <c r="D20" s="55"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="58"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="36"/>
+      <c r="B21" s="40"/>
+      <c r="C21" s="55"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="58"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" s="36"/>
+      <c r="B22" s="40" t="s">
         <v>16</v>
       </c>
-      <c r="I17" s="110"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="23"/>
-      <c r="B18" s="42"/>
-      <c r="C18" s="105"/>
-      <c r="D18" s="105"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="44"/>
-      <c r="I18" s="110"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="23"/>
-      <c r="B19" s="42"/>
-      <c r="C19" s="105"/>
-      <c r="D19" s="105"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="42"/>
-      <c r="G19" s="42"/>
-      <c r="H19" s="44"/>
-      <c r="I19" s="110"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="23"/>
-      <c r="B20" s="42"/>
-      <c r="C20" s="105"/>
-      <c r="D20" s="105"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="42"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="44"/>
-      <c r="I20" s="110"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="23"/>
-      <c r="B21" s="42"/>
-      <c r="C21" s="105"/>
-      <c r="D21" s="105"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="42"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="44"/>
-      <c r="I21" s="110"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="23"/>
-      <c r="B22" s="42" t="s">
+      <c r="C22" s="55" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="105" t="s">
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D22" s="105"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="42" t="s">
+      <c r="G22" s="40"/>
+      <c r="H22" s="57" t="s">
+        <v>321</v>
+      </c>
+      <c r="I22" s="58"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" s="36"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="58"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24" s="36"/>
+      <c r="B24" s="40"/>
+      <c r="C24" s="55"/>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="58"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25" s="36"/>
+      <c r="B25" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="42"/>
-      <c r="H22" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="I22" s="110"/>
-    </row>
-    <row r="23" spans="1:9">
-      <c r="A23" s="23"/>
-      <c r="B23" s="42"/>
-      <c r="C23" s="105"/>
-      <c r="D23" s="105"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="110"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="23"/>
-      <c r="B24" s="42"/>
-      <c r="C24" s="105"/>
-      <c r="D24" s="105"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="44"/>
-      <c r="I24" s="110"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="23"/>
-      <c r="B25" s="42" t="s">
+      <c r="C25" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="C25" s="105" t="s">
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="D25" s="105"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="42" t="s">
+      <c r="G25" s="40"/>
+      <c r="H25" s="40" t="s">
+        <v>15</v>
+      </c>
+      <c r="I25" s="56"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26" s="36"/>
+      <c r="B26" s="40"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="55"/>
+      <c r="E26" s="55"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40"/>
+      <c r="H26" s="40"/>
+      <c r="I26" s="56"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A27" s="36"/>
+      <c r="B27" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" s="67"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="23"/>
-      <c r="B26" s="42"/>
-      <c r="C26" s="105"/>
-      <c r="D26" s="105"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="67"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="23"/>
-      <c r="B27" s="42" t="s">
+      <c r="C27" s="68" t="s">
         <v>23</v>
       </c>
-      <c r="C27" s="43" t="s">
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="43"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="42" t="s">
+      <c r="G27" s="40"/>
+      <c r="H27" s="69" t="s">
+        <v>323</v>
+      </c>
+      <c r="I27" s="56"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A28" s="36"/>
+      <c r="B28" s="40"/>
+      <c r="C28" s="68"/>
+      <c r="D28" s="68"/>
+      <c r="E28" s="68"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40"/>
+      <c r="H28" s="69"/>
+      <c r="I28" s="56"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A29" s="36"/>
+      <c r="B29" s="40"/>
+      <c r="C29" s="68"/>
+      <c r="D29" s="68"/>
+      <c r="E29" s="68"/>
+      <c r="F29" s="40"/>
+      <c r="G29" s="40"/>
+      <c r="H29" s="69"/>
+      <c r="I29" s="56"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A30" s="36"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="68"/>
+      <c r="D30" s="68"/>
+      <c r="E30" s="68"/>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="56"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A31" s="36"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="68"/>
+      <c r="F31" s="40"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="56"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A32" s="36"/>
+      <c r="B32" s="40" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="42"/>
-      <c r="H27" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="I27" s="67"/>
-    </row>
-    <row r="28" spans="1:9">
-      <c r="A28" s="23"/>
-      <c r="B28" s="42"/>
-      <c r="C28" s="43"/>
-      <c r="D28" s="43"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="42"/>
-      <c r="H28" s="45"/>
-      <c r="I28" s="67"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="23"/>
-      <c r="B29" s="42"/>
-      <c r="C29" s="43"/>
-      <c r="D29" s="43"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="42"/>
-      <c r="H29" s="45"/>
-      <c r="I29" s="67"/>
-    </row>
-    <row r="30" spans="1:9">
-      <c r="A30" s="23"/>
-      <c r="B30" s="42"/>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="67"/>
-    </row>
-    <row r="31" spans="1:9">
-      <c r="A31" s="23"/>
-      <c r="B31" s="42"/>
-      <c r="C31" s="43"/>
-      <c r="D31" s="43"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="67"/>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="23"/>
-      <c r="B32" s="42" t="s">
+      <c r="C32" s="68" t="s">
         <v>26</v>
       </c>
-      <c r="C32" s="43" t="s">
+      <c r="D32" s="68"/>
+      <c r="E32" s="68"/>
+      <c r="F32" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="43"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="42" t="s">
+      <c r="G32" s="40"/>
+      <c r="H32" s="69" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" s="56"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A33" s="36"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="68"/>
+      <c r="D33" s="68"/>
+      <c r="E33" s="68"/>
+      <c r="F33" s="40"/>
+      <c r="G33" s="40"/>
+      <c r="H33" s="69"/>
+      <c r="I33" s="56"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A34" s="37"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="70"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="71"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A35" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="G32" s="42"/>
-      <c r="H32" s="45" t="s">
-        <v>16</v>
-      </c>
-      <c r="I32" s="67"/>
-    </row>
-    <row r="33" spans="1:9">
-      <c r="A33" s="23"/>
-      <c r="B33" s="42"/>
-      <c r="C33" s="43"/>
-      <c r="D33" s="43"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="45"/>
-      <c r="I33" s="67"/>
-    </row>
-    <row r="34" ht="14.25" spans="1:9">
-      <c r="A34" s="46"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="24"/>
-      <c r="H34" s="24"/>
-      <c r="I34" s="68"/>
-    </row>
-    <row r="35" spans="1:9">
-      <c r="A35" s="21" t="s">
+      <c r="B35" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="C35" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="I35" s="22"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A36" s="30"/>
+      <c r="B36" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="22"/>
-      <c r="E35" s="22"/>
-      <c r="F35" s="22"/>
-      <c r="G35" s="22"/>
-      <c r="H35" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="I35" s="63"/>
-    </row>
-    <row r="36" spans="1:9">
-      <c r="A36" s="78"/>
-      <c r="B36" s="83" t="s">
+      <c r="C36" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="C36" s="55" t="s">
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="23"/>
+      <c r="H36" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" s="25"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A37" s="30"/>
+      <c r="B37" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="D36" s="55"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="83" t="s">
-        <v>16</v>
-      </c>
-      <c r="I36" s="89"/>
-    </row>
-    <row r="37" spans="1:9">
-      <c r="A37" s="78"/>
-      <c r="B37" s="83" t="s">
+      <c r="C37" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="C37" s="55" t="s">
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="23"/>
+      <c r="H37" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="I37" s="25"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A38" s="30"/>
+      <c r="B38" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D37" s="55"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="55"/>
-      <c r="G37" s="55"/>
-      <c r="H37" s="83" t="s">
-        <v>16</v>
-      </c>
-      <c r="I37" s="89"/>
-    </row>
-    <row r="38" spans="1:9">
-      <c r="A38" s="78"/>
-      <c r="B38" s="83" t="s">
+      <c r="C38" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="55" t="s">
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="23"/>
+      <c r="H38" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38" s="25"/>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A39" s="30"/>
+      <c r="B39" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="D38" s="55"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="55"/>
-      <c r="H38" s="83" t="s">
-        <v>16</v>
-      </c>
-      <c r="I38" s="89"/>
-    </row>
-    <row r="39" spans="1:9">
-      <c r="A39" s="78"/>
-      <c r="B39" s="83" t="s">
+      <c r="C39" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="55" t="s">
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="H39" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="I39" s="25"/>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A40" s="30"/>
+      <c r="B40" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D39" s="55"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="55"/>
-      <c r="H39" s="83" t="s">
-        <v>16</v>
-      </c>
-      <c r="I39" s="89"/>
-    </row>
-    <row r="40" spans="1:9">
-      <c r="A40" s="78"/>
-      <c r="B40" s="83" t="s">
+      <c r="C40" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C40" s="55" t="s">
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" s="25"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A41" s="30"/>
+      <c r="B41" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D40" s="55"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="55"/>
-      <c r="G40" s="55"/>
-      <c r="H40" s="83" t="s">
-        <v>16</v>
-      </c>
-      <c r="I40" s="89"/>
-    </row>
-    <row r="41" spans="1:9">
-      <c r="A41" s="78"/>
-      <c r="B41" s="83" t="s">
+      <c r="C41" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C41" s="55" t="s">
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="I41" s="25"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A42" s="38"/>
+      <c r="B42" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="55"/>
-      <c r="H41" s="83" t="s">
-        <v>16</v>
-      </c>
-      <c r="I41" s="89"/>
-    </row>
-    <row r="42" ht="14.25" spans="1:9">
-      <c r="A42" s="50"/>
-      <c r="B42" s="51" t="s">
+      <c r="C42" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="93" t="s">
+      <c r="D42" s="26"/>
+      <c r="E42" s="26"/>
+      <c r="F42" s="26"/>
+      <c r="G42" s="26"/>
+      <c r="H42" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="I42" s="28"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A43" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="D42" s="93"/>
-      <c r="E42" s="93"/>
-      <c r="F42" s="93"/>
-      <c r="G42" s="93"/>
-      <c r="H42" s="51" t="s">
-        <v>16</v>
-      </c>
-      <c r="I42" s="70"/>
-    </row>
-    <row r="43" spans="1:9">
-      <c r="A43" s="58" t="s">
+      <c r="B43" s="72" t="s">
         <v>46</v>
       </c>
-      <c r="B43" s="59" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" s="59"/>
-      <c r="D43" s="59"/>
-      <c r="E43" s="59"/>
-      <c r="F43" s="59"/>
-      <c r="G43" s="59"/>
-      <c r="H43" s="59"/>
-      <c r="I43" s="74"/>
-    </row>
-    <row r="44" ht="14.25" spans="1:9">
-      <c r="A44" s="50"/>
-      <c r="B44" s="60"/>
-      <c r="C44" s="60"/>
-      <c r="D44" s="60"/>
-      <c r="E44" s="60"/>
-      <c r="F44" s="60"/>
-      <c r="G44" s="60"/>
-      <c r="H44" s="60"/>
+      <c r="C43" s="72"/>
+      <c r="D43" s="72"/>
+      <c r="E43" s="72"/>
+      <c r="F43" s="72"/>
+      <c r="G43" s="72"/>
+      <c r="H43" s="72"/>
+      <c r="I43" s="73"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A44" s="38"/>
+      <c r="B44" s="74"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="74"/>
+      <c r="E44" s="74"/>
+      <c r="F44" s="74"/>
+      <c r="G44" s="74"/>
+      <c r="H44" s="74"/>
       <c r="I44" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="C42:G42"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A8:A13"/>
-    <mergeCell ref="A14:A34"/>
-    <mergeCell ref="A35:A42"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="B3:I7"/>
+    <mergeCell ref="C15:E16"/>
+    <mergeCell ref="F15:G16"/>
+    <mergeCell ref="H15:I16"/>
+    <mergeCell ref="B8:I13"/>
     <mergeCell ref="A43:A44"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B17:B21"/>
@@ -5311,11 +4726,13 @@
     <mergeCell ref="B25:B26"/>
     <mergeCell ref="B27:B31"/>
     <mergeCell ref="B32:B34"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="B3:I7"/>
-    <mergeCell ref="C15:E16"/>
-    <mergeCell ref="F15:G16"/>
-    <mergeCell ref="H15:I16"/>
+    <mergeCell ref="B43:I44"/>
+    <mergeCell ref="C42:G42"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A13"/>
+    <mergeCell ref="A14:A34"/>
+    <mergeCell ref="A35:A42"/>
     <mergeCell ref="C22:E24"/>
     <mergeCell ref="F22:G24"/>
     <mergeCell ref="H22:I24"/>
@@ -5325,1422 +4742,1428 @@
     <mergeCell ref="C25:E26"/>
     <mergeCell ref="F25:G26"/>
     <mergeCell ref="H25:I26"/>
-    <mergeCell ref="B8:I13"/>
     <mergeCell ref="C27:E31"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:I35"/>
     <mergeCell ref="F27:G31"/>
     <mergeCell ref="H27:I31"/>
     <mergeCell ref="C32:E34"/>
     <mergeCell ref="F32:G34"/>
     <mergeCell ref="H32:I34"/>
-    <mergeCell ref="B43:I44"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="43.25" style="95" customWidth="1"/>
-    <col min="2" max="2" width="5.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="43.1640625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="5.1640625" style="1" customWidth="1"/>
     <col min="3" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="95" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A2" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A3" s="18" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="95" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="95" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="95" t="s">
-        <v>52</v>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4" s="18" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A5" s="18" t="s">
+        <v>325</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="15" style="1" customWidth="1"/>
     <col min="3" max="3" width="27.5" customWidth="1"/>
-    <col min="4" max="4" width="50.875" customWidth="1"/>
-    <col min="5" max="5" width="8.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="3.375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="7.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="50.83203125" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="3.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:8">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="F1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" hidden="1" spans="1:8">
-      <c r="A2" s="1" t="s">
+      <c r="D2" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C2" s="2" t="s">
+    </row>
+    <row r="3" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E3" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="D4" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="3" s="1" customFormat="1" hidden="1" spans="1:8">
-      <c r="A3" s="1" t="s">
+      <c r="D5" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="2" t="s">
+    </row>
+    <row r="6" spans="1:8" ht="28" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="B6" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="28" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" hidden="1" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="B7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="2" t="s">
+    </row>
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" s="1" customFormat="1" hidden="1" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" ht="27" hidden="1" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    </row>
+    <row r="9" spans="1:8" ht="28" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C6" t="s">
-        <v>71</v>
-      </c>
-      <c r="D6" s="94" t="s">
-        <v>72</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" ht="27" hidden="1" spans="1:8">
-      <c r="A7" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B7" s="1" t="s">
+      <c r="H9" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C7" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="94" t="s">
+      <c r="H10" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="8" hidden="1" spans="1:8">
-      <c r="A8" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" s="1" t="s">
+      <c r="C11" t="s">
+        <v>80</v>
+      </c>
+      <c r="D11" t="s">
+        <v>81</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="94" t="s">
-        <v>77</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="9" ht="27" hidden="1" spans="1:8">
-      <c r="A9" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C9" t="s">
-        <v>79</v>
-      </c>
-      <c r="D9" s="94" t="s">
-        <v>80</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="10" hidden="1" spans="1:8">
-      <c r="A10" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" t="s">
+      <c r="H11" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="42" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C12" t="s">
         <v>82</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="11" hidden="1" spans="1:8">
-      <c r="A11" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C11" t="s">
+      <c r="D12" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E12" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" customFormat="1" ht="40.5" hidden="1" spans="1:8">
-      <c r="A12" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="H12" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="42" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C13" t="s">
         <v>85</v>
       </c>
-      <c r="D12" s="94" t="s">
+      <c r="D13" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="E12" s="1" t="s">
+    </row>
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C14" t="s">
         <v>87</v>
       </c>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="13" ht="40.5" hidden="1" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="D14" t="s">
         <v>88</v>
       </c>
-      <c r="D13" s="94" t="s">
+      <c r="E14" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="42" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="14" hidden="1" spans="1:8">
-      <c r="A14" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" t="s">
+      <c r="D15" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E15" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C16" t="s">
         <v>91</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" ht="40.5" hidden="1" spans="1:8">
-      <c r="A15" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C15" t="s">
+      <c r="D16" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="D15" s="94" t="s">
+      <c r="E16" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="16" customFormat="1" spans="1:8">
-      <c r="A16" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C16" t="s">
+    </row>
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="94" t="s">
+      <c r="D17" s="17" t="s">
         <v>95</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E17" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="42" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
         <v>96</v>
       </c>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" customFormat="1" hidden="1" spans="1:8">
-      <c r="A17" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D18" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="D17" s="94" t="s">
+      <c r="E18" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="28" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" t="s">
         <v>98</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="18" ht="40.5" hidden="1" spans="1:8">
-      <c r="A18" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D19" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="D18" s="94" t="s">
+      <c r="E19" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="42" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
         <v>100</v>
       </c>
-      <c r="E18" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="19" ht="27" hidden="1" spans="1:8">
-      <c r="A19" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D20" s="17" t="s">
         <v>101</v>
       </c>
-      <c r="D19" s="94" t="s">
+      <c r="E20" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="28" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" t="s">
         <v>102</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="20" ht="40.5" hidden="1" spans="1:8">
-      <c r="A20" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="D21" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="D20" s="94" t="s">
+      <c r="E21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A22" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s">
         <v>104</v>
       </c>
-      <c r="E20" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="21" ht="27" hidden="1" spans="1:8">
-      <c r="A21" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="D22" s="17" t="s">
         <v>105</v>
       </c>
-      <c r="D21" s="94" t="s">
+      <c r="E22" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="28" x14ac:dyDescent="0.15">
+      <c r="A23" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C23" t="s">
         <v>106</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="D23" s="17" t="s">
         <v>107</v>
       </c>
-      <c r="D22" s="94" t="s">
+      <c r="E23" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C24" t="s">
         <v>108</v>
       </c>
-      <c r="E22" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="23" ht="27" spans="1:5">
-      <c r="A23" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="D24" s="17" t="s">
         <v>109</v>
       </c>
-      <c r="D23" s="94" t="s">
+      <c r="E24" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s">
         <v>110</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="24" hidden="1" spans="1:8">
-      <c r="A24" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="D25" s="17" t="s">
         <v>111</v>
       </c>
-      <c r="D24" s="94" t="s">
+      <c r="E25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="28" x14ac:dyDescent="0.15">
+      <c r="A26" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" hidden="1" spans="1:8">
-      <c r="A25" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="B26" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D25" s="94" t="s">
+      <c r="C26" t="s">
         <v>114</v>
       </c>
-      <c r="E25" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="26" ht="27" spans="1:5">
-      <c r="A26" s="1" t="s">
+      <c r="D26" s="17" t="s">
         <v>115</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="E26" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="C26" t="s">
+      <c r="B27" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="D26" s="94" t="s">
+      <c r="C27" t="s">
         <v>118</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="27" hidden="1" spans="1:8">
-      <c r="A27" s="1" t="s">
+      <c r="D27" t="s">
         <v>119</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="E27" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="C27" t="s">
+      <c r="C28" t="s">
         <v>121</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D28" t="s">
         <v>122</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="28" hidden="1" spans="1:8">
-      <c r="A28" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B28" s="1" t="s">
+      <c r="E28" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C29" t="s">
         <v>123</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D29" t="s">
         <v>124</v>
       </c>
-      <c r="D28" t="s">
+      <c r="E29" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C30" t="s">
         <v>125</v>
       </c>
-      <c r="E28" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="29" hidden="1" spans="1:8">
-      <c r="A29" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="D30" t="s">
         <v>126</v>
       </c>
-      <c r="D29" t="s">
+      <c r="E30" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A31" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B31" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E29" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" hidden="1" spans="1:8">
-      <c r="A30" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>128</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D31" t="s">
         <v>129</v>
       </c>
-      <c r="E30" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B31" s="1" t="s">
+      <c r="E31" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A32" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C32" t="s">
         <v>130</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D32" t="s">
         <v>131</v>
       </c>
-      <c r="D31" t="s">
+      <c r="E32" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A33" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" t="s">
         <v>132</v>
       </c>
-      <c r="E31" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
-      <c r="A32" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="D33" t="s">
         <v>133</v>
       </c>
-      <c r="D32" t="s">
+      <c r="E33" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="E32" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="C34" t="s">
         <v>135</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D34" t="s">
         <v>136</v>
       </c>
-      <c r="E33" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" hidden="1" spans="1:8">
-      <c r="A34" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B34" s="1" t="s">
+      <c r="E34" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C35" t="s">
         <v>137</v>
       </c>
-      <c r="C34" t="s">
+      <c r="D35" t="s">
         <v>138</v>
       </c>
-      <c r="D34" t="s">
+      <c r="E35" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A36" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B36" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="35" hidden="1" spans="1:8">
-      <c r="A35" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="C36" t="s">
         <v>140</v>
       </c>
-      <c r="D35" t="s">
+      <c r="D36" t="s">
         <v>141</v>
       </c>
-      <c r="E35" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B36" s="1" t="s">
+      <c r="E36" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="C36" t="s">
+      <c r="C37" t="s">
         <v>143</v>
       </c>
-      <c r="D36" t="s">
+      <c r="D37" t="s">
         <v>144</v>
       </c>
-      <c r="E36" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B37" s="1" t="s">
+      <c r="E37" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A38" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C38" t="s">
         <v>145</v>
       </c>
-      <c r="C37" t="s">
+      <c r="D38" t="s">
         <v>146</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E38" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A39" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C39" t="s">
         <v>147</v>
       </c>
-      <c r="E37" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="D39" t="s">
         <v>148</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E39" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A40" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C40" t="s">
         <v>149</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="D40" t="s">
         <v>150</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E40" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A41" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="E39" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="C41" t="s">
         <v>152</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D41" t="s">
         <v>153</v>
       </c>
-      <c r="E40" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B41" s="1" t="s">
+      <c r="E41" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A42" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C42" t="s">
         <v>154</v>
       </c>
-      <c r="C41" t="s">
+      <c r="D42" t="s">
         <v>155</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E42" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A43" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C43" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="E41" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H41" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
-      <c r="A42" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="D43" s="17" t="s">
         <v>157</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E43" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A44" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C44" t="s">
         <v>158</v>
       </c>
-      <c r="E42" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C43" s="94" t="s">
+      <c r="D44" t="s">
         <v>159</v>
       </c>
-      <c r="D43" s="94" t="s">
+      <c r="E44" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A45" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C45" t="s">
         <v>160</v>
       </c>
-      <c r="E43" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="D45" t="s">
         <v>161</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E45" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A46" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B46" s="1" t="s">
         <v>162</v>
       </c>
-      <c r="E44" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="C46" t="s">
         <v>163</v>
       </c>
-      <c r="D45" t="s">
+      <c r="D46" t="s">
         <v>164</v>
       </c>
-      <c r="E45" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B46" s="1" t="s">
+      <c r="E46" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C47" t="s">
         <v>165</v>
       </c>
-      <c r="C46" t="s">
+      <c r="D47" t="s">
         <v>166</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E47" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A48" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B48" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="E46" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="47" hidden="1" spans="1:8">
-      <c r="A47" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="C48" t="s">
         <v>168</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D48" t="s">
         <v>169</v>
       </c>
-      <c r="E47" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B48" s="1" t="s">
+      <c r="E48" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A49" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C49" t="s">
         <v>170</v>
       </c>
-      <c r="C48" t="s">
+      <c r="D49" t="s">
         <v>171</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E49" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A50" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C50" t="s">
         <v>172</v>
       </c>
-      <c r="E48" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="D50" t="s">
         <v>173</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E50" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A51" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C51" t="s">
         <v>174</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="D51" t="s">
         <v>175</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E51" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A52" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B52" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E50" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="C52" t="s">
         <v>177</v>
       </c>
-      <c r="D51" t="s">
+      <c r="D52" t="s">
         <v>178</v>
       </c>
-      <c r="E51" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B52" s="1" t="s">
+      <c r="E52" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="C52" t="s">
+      <c r="C53" t="s">
         <v>180</v>
       </c>
-      <c r="D52" t="s">
+      <c r="D53" s="17" t="s">
         <v>181</v>
       </c>
-      <c r="E52" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="53" hidden="1" spans="1:8">
-      <c r="A53" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B53" s="1" t="s">
+      <c r="E53" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="28" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="C53" t="s">
+      <c r="C54" t="s">
         <v>183</v>
       </c>
-      <c r="D53" s="94" t="s">
+      <c r="D54" s="17" t="s">
         <v>184</v>
       </c>
-      <c r="E53" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="54" ht="27" hidden="1" spans="1:4">
-      <c r="A54" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B54" s="1" t="s">
+    </row>
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C55" t="s">
         <v>185</v>
       </c>
-      <c r="C54" t="s">
+      <c r="D55" s="17" t="s">
         <v>186</v>
       </c>
-      <c r="D54" s="94" t="s">
+    </row>
+    <row r="56" spans="1:8" ht="42" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C56" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="55" hidden="1" spans="1:4">
-      <c r="A55" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="D56" s="17" t="s">
         <v>188</v>
       </c>
-      <c r="D55" s="94" t="s">
+    </row>
+    <row r="57" spans="1:8" ht="42" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C57" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="56" ht="40.5" hidden="1" spans="1:4">
-      <c r="A56" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="D57" s="17" t="s">
         <v>190</v>
       </c>
-      <c r="D56" s="94" t="s">
+    </row>
+    <row r="58" spans="1:8" ht="42" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="C58" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="57" ht="40.5" hidden="1" spans="1:4">
-      <c r="A57" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="D58" s="17" t="s">
         <v>192</v>
       </c>
-      <c r="D57" s="94" t="s">
+    </row>
+    <row r="59" spans="1:8" ht="28" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="58" ht="40.5" hidden="1" spans="1:4">
-      <c r="A58" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>185</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="C59" t="s">
         <v>194</v>
       </c>
-      <c r="D58" s="94" t="s">
+      <c r="D59" s="17" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="59" ht="27" hidden="1" spans="1:4">
-      <c r="A59" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B59" s="1" t="s">
+    <row r="60" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C60" t="s">
         <v>196</v>
       </c>
-      <c r="C59" t="s">
+      <c r="D60" s="17" t="s">
         <v>197</v>
       </c>
-      <c r="D59" s="94" t="s">
+    </row>
+    <row r="61" spans="1:8" ht="28" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C61" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="60" hidden="1" spans="1:4">
-      <c r="A60" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="D61" s="17" t="s">
         <v>199</v>
       </c>
-      <c r="D60" s="94" t="s">
+    </row>
+    <row r="62" spans="1:8" ht="42" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="C62" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="61" ht="27" hidden="1" spans="1:4">
-      <c r="A61" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B61" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="D62" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="D61" s="94" t="s">
+    </row>
+    <row r="63" spans="1:8" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B63" s="1" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="62" ht="40.5" hidden="1" spans="1:4">
-      <c r="A62" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B62" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="C63" t="s">
         <v>203</v>
       </c>
-      <c r="D62" s="94" t="s">
+      <c r="D63" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="63" hidden="1" spans="1:4">
-      <c r="A63" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B63" s="1" t="s">
+    <row r="64" spans="1:8" ht="28" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C64" t="s">
         <v>205</v>
       </c>
-      <c r="C63" t="s">
+      <c r="D64" s="17" t="s">
         <v>206</v>
       </c>
-      <c r="D63" t="s">
+    </row>
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C65" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="64" ht="27" hidden="1" spans="1:4">
-      <c r="A64" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B64" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="D65" t="s">
         <v>208</v>
       </c>
-      <c r="D64" s="94" t="s">
+    </row>
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="65" hidden="1" spans="1:4">
-      <c r="A65" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="C66" t="s">
         <v>210</v>
       </c>
-      <c r="D65" t="s">
+      <c r="D66" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="66" hidden="1" spans="1:4">
-      <c r="A66" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B66" s="1" t="s">
+    <row r="67" spans="1:4" ht="42" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="C67" t="s">
         <v>212</v>
       </c>
-      <c r="C66" t="s">
+      <c r="D67" s="17" t="s">
         <v>213</v>
       </c>
-      <c r="D66" t="s">
+    </row>
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="67" ht="40.5" hidden="1" spans="1:4">
-      <c r="A67" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B67" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="C68" t="s">
         <v>215</v>
       </c>
-      <c r="D67" s="94" t="s">
+      <c r="D68" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="68" hidden="1" spans="1:4">
-      <c r="A68" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B68" s="1" t="s">
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C69" t="s">
         <v>217</v>
       </c>
-      <c r="C68" t="s">
+      <c r="D69" t="s">
         <v>218</v>
       </c>
-      <c r="D68" t="s">
+    </row>
+    <row r="70" spans="1:4" ht="28" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C70" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="69" hidden="1" spans="1:4">
-      <c r="A69" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B69" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="D70" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="D69" t="s">
+    </row>
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="70" ht="27" hidden="1" spans="1:4">
-      <c r="A70" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B70" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="C71" t="s">
         <v>222</v>
       </c>
-      <c r="D70" s="94" t="s">
+      <c r="D71" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="71" hidden="1" spans="1:4">
-      <c r="A71" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B71" s="1" t="s">
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C72" t="s">
         <v>224</v>
       </c>
-      <c r="C71" t="s">
+      <c r="D72" t="s">
         <v>225</v>
       </c>
-      <c r="D71" t="s">
+    </row>
+    <row r="73" spans="1:4" ht="28" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C73" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="72" hidden="1" spans="1:4">
-      <c r="A72" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="D73" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="D72" t="s">
+    </row>
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="1" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="73" ht="27" hidden="1" spans="1:4">
-      <c r="A73" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="C73" t="s">
+      <c r="B74" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="D73" s="94" t="s">
+      <c r="C74" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="74" hidden="1" spans="1:4">
-      <c r="A74" s="1" t="s">
+      <c r="D74" t="s">
         <v>231</v>
       </c>
-      <c r="B74" s="1" t="s">
+    </row>
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="C75" t="s">
         <v>232</v>
       </c>
-      <c r="C74" t="s">
+      <c r="D75" t="s">
         <v>233</v>
       </c>
-      <c r="D74" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="75" hidden="1" spans="1:4">
-      <c r="A75" s="1" t="s">
-        <v>231</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>232</v>
-      </c>
-      <c r="C75" t="s">
-        <v>235</v>
-      </c>
-      <c r="D75" t="s">
-        <v>236</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
@@ -6748,463 +6171,435 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B27" sqref="A1:I28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="92"/>
-    <col min="2" max="16384" width="9" style="91"/>
+    <col min="1" max="1" width="9" style="16"/>
+    <col min="2" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="44"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="47"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="50"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="30"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="52"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="30"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="52"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="38"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="78"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="20"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="36"/>
+      <c r="B8" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="61"/>
-    </row>
-    <row r="2" ht="14.25" spans="1:9">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="62"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="21" t="s">
+      <c r="C8" s="76" t="s">
         <v>238</v>
       </c>
-      <c r="B3" s="76" t="s">
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="40" t="s">
         <v>239</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="85"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="86"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="78"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="86"/>
-    </row>
-    <row r="6" ht="14.25" spans="1:9">
-      <c r="A6" s="50"/>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="87"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="81" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="81" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81" t="s">
+      <c r="G8" s="40"/>
+      <c r="H8" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="56"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="36"/>
+      <c r="B9" s="40" t="s">
+        <v>240</v>
+      </c>
+      <c r="C9" s="68" t="s">
+        <v>241</v>
+      </c>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="G9" s="40"/>
+      <c r="H9" s="57" t="s">
+        <v>243</v>
+      </c>
+      <c r="I9" s="56"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="36"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="56"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="36"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="56"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="36"/>
+      <c r="B12" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="68" t="s">
+        <v>244</v>
+      </c>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="G12" s="40"/>
+      <c r="H12" s="69" t="s">
+        <v>246</v>
+      </c>
+      <c r="I12" s="56"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="36"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="56"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="37"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="71"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="88"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="23"/>
-      <c r="B8" s="42" t="s">
-        <v>240</v>
-      </c>
-      <c r="C8" s="82" t="s">
-        <v>241</v>
-      </c>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="42" t="s">
-        <v>242</v>
-      </c>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="I8" s="67"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="23"/>
-      <c r="B9" s="42" t="s">
-        <v>243</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>244</v>
-      </c>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="42" t="s">
-        <v>245</v>
-      </c>
-      <c r="G9" s="42"/>
-      <c r="H9" s="44" t="s">
-        <v>246</v>
-      </c>
-      <c r="I9" s="67"/>
-    </row>
-    <row r="10" s="91" customFormat="1" spans="1:9">
-      <c r="A10" s="23"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="67"/>
-    </row>
-    <row r="11" s="91" customFormat="1" spans="1:9">
-      <c r="A11" s="23"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="67"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="23"/>
-      <c r="B12" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="43" t="s">
+      <c r="I15" s="22"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="30"/>
+      <c r="B16" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" s="25"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="30"/>
+      <c r="B17" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="42" t="s">
+      <c r="C17" s="23" t="s">
         <v>248</v>
       </c>
-      <c r="G12" s="42"/>
-      <c r="H12" s="45" t="s">
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="24" t="s">
         <v>249</v>
       </c>
-      <c r="I12" s="67"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="23"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="67"/>
-    </row>
-    <row r="14" ht="14.25" spans="1:9">
-      <c r="A14" s="46"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="68"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="63"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="78"/>
-      <c r="B16" s="83" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="83" t="s">
-        <v>65</v>
-      </c>
-      <c r="I16" s="89"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="78"/>
-      <c r="B17" s="83" t="s">
+      <c r="I17" s="25"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" s="30"/>
+      <c r="B18" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="I18" s="25"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="30"/>
+      <c r="B19" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="23" t="s">
         <v>250</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="I19" s="25"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="30"/>
+      <c r="B20" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="83" t="s">
+      <c r="C20" s="23" t="s">
         <v>252</v>
       </c>
-      <c r="I17" s="89"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="78"/>
-      <c r="B18" s="83" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="83" t="s">
-        <v>65</v>
-      </c>
-      <c r="I18" s="89"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="78"/>
-      <c r="B19" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="55" t="s">
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="24" t="s">
         <v>253</v>
       </c>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="83" t="s">
-        <v>252</v>
-      </c>
-      <c r="I19" s="89"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="78"/>
-      <c r="B20" s="83" t="s">
+      <c r="I20" s="25"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="30"/>
+      <c r="B21" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="I21" s="25"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" s="30"/>
+      <c r="B22" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="23" t="s">
         <v>254</v>
       </c>
-      <c r="C20" s="55" t="s">
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="I22" s="25"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" s="38"/>
+      <c r="B23" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="I23" s="28"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24" s="35" t="s">
         <v>255</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="83" t="s">
+      <c r="B24" s="79" t="s">
         <v>256</v>
       </c>
-      <c r="I20" s="89"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="78"/>
-      <c r="B21" s="83" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="83" t="s">
-        <v>65</v>
-      </c>
-      <c r="I21" s="89"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="78"/>
-      <c r="B22" s="83" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="55" t="s">
+      <c r="C24" s="80"/>
+      <c r="D24" s="80"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="80"/>
+      <c r="H24" s="80"/>
+      <c r="I24" s="81"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25" s="36"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="82"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26" s="31"/>
+      <c r="B26" s="83"/>
+      <c r="C26" s="83"/>
+      <c r="D26" s="83"/>
+      <c r="E26" s="83"/>
+      <c r="F26" s="83"/>
+      <c r="G26" s="83"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="84"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A27" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" s="72" t="s">
         <v>257</v>
       </c>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="83" t="s">
-        <v>65</v>
-      </c>
-      <c r="I22" s="89"/>
-    </row>
-    <row r="23" ht="14.25" spans="1:9">
-      <c r="A23" s="50"/>
-      <c r="B23" s="51" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="93" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="93"/>
-      <c r="E23" s="93"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="93"/>
-      <c r="H23" s="51" t="s">
-        <v>65</v>
-      </c>
-      <c r="I23" s="70"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="52" t="s">
-        <v>258</v>
-      </c>
-      <c r="B24" s="53" t="s">
-        <v>259</v>
-      </c>
-      <c r="C24" s="54"/>
-      <c r="D24" s="54"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="54"/>
-      <c r="H24" s="54"/>
-      <c r="I24" s="71"/>
-    </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="23"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="55"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="72"/>
-    </row>
-    <row r="26" ht="14.25" spans="1:9">
-      <c r="A26" s="56"/>
-      <c r="B26" s="57"/>
-      <c r="C26" s="57"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="57"/>
-      <c r="F26" s="57"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="73"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="B27" s="59" t="s">
-        <v>260</v>
-      </c>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="74"/>
-    </row>
-    <row r="28" ht="14.25" spans="1:9">
-      <c r="A28" s="50"/>
-      <c r="B28" s="60"/>
-      <c r="C28" s="60"/>
-      <c r="D28" s="60"/>
-      <c r="E28" s="60"/>
-      <c r="F28" s="60"/>
-      <c r="G28" s="60"/>
-      <c r="H28" s="60"/>
+      <c r="C27" s="72"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="72"/>
+      <c r="F27" s="72"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="72"/>
+      <c r="I27" s="73"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A28" s="38"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="E28" s="74"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="74"/>
+      <c r="H28" s="74"/>
       <c r="I28" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A14"/>
-    <mergeCell ref="A15:A23"/>
-    <mergeCell ref="A24:A26"/>
-    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B24:I26"/>
+    <mergeCell ref="B27:I28"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="B12:B14"/>
     <mergeCell ref="B3:I6"/>
@@ -7215,520 +6610,509 @@
     <mergeCell ref="F12:G14"/>
     <mergeCell ref="H12:I14"/>
     <mergeCell ref="C12:E14"/>
-    <mergeCell ref="B24:I26"/>
-    <mergeCell ref="B27:I28"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A14"/>
+    <mergeCell ref="A15:A23"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9" style="16"/>
+    <col min="1" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="42" t="s">
+        <v>258</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="44"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="47"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="B3" s="48" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" s="49"/>
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+      <c r="G3" s="49"/>
+      <c r="H3" s="49"/>
+      <c r="I3" s="50"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="30"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
+      <c r="H4" s="51"/>
+      <c r="I4" s="52"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="30"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="52"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="38"/>
+      <c r="B6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="78"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="35" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="19"/>
+      <c r="H7" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="I7" s="20"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="36"/>
+      <c r="B8" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="C8" s="76" t="s">
+        <v>238</v>
+      </c>
+      <c r="D8" s="76"/>
+      <c r="E8" s="76"/>
+      <c r="F8" s="40" t="s">
+        <v>239</v>
+      </c>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40" t="s">
+        <v>62</v>
+      </c>
+      <c r="I8" s="56"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="36"/>
+      <c r="B9" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="68" t="s">
+        <v>241</v>
+      </c>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="40" t="s">
+        <v>242</v>
+      </c>
+      <c r="G9" s="40"/>
+      <c r="H9" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9" s="56"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="36"/>
+      <c r="B10" s="40"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="56"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="36"/>
+      <c r="B11" s="40"/>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="56"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="36"/>
+      <c r="B12" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="68" t="s">
+        <v>244</v>
+      </c>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="40" t="s">
+        <v>245</v>
+      </c>
+      <c r="G12" s="40"/>
+      <c r="H12" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="I12" s="56"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="36"/>
+      <c r="B13" s="40"/>
+      <c r="C13" s="68"/>
+      <c r="D13" s="68"/>
+      <c r="E13" s="68"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="56"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="37"/>
+      <c r="B14" s="41"/>
+      <c r="C14" s="70"/>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="41"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="41"/>
+      <c r="I14" s="71"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="I15" s="22"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="30"/>
+      <c r="B16" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="I16" s="25"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="30"/>
+      <c r="B17" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="I17" s="25"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" s="30"/>
+      <c r="B18" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="23"/>
+      <c r="H18" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="I18" s="25"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A19" s="30"/>
+      <c r="B19" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="23"/>
+      <c r="H19" s="24" t="s">
+        <v>249</v>
+      </c>
+      <c r="I19" s="25"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A20" s="30"/>
+      <c r="B20" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>252</v>
+      </c>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="I20" s="25"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A21" s="30"/>
+      <c r="B21" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C21" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
+      <c r="H21" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="I21" s="25"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" s="30"/>
+      <c r="B22" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C22" s="23" t="s">
+        <v>254</v>
+      </c>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="I22" s="25"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" s="31"/>
+      <c r="B23" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="83" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="83"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="83"/>
+      <c r="H23" s="85" t="s">
+        <v>62</v>
+      </c>
+      <c r="I23" s="86"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A24" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="B24" s="87" t="s">
+        <v>260</v>
+      </c>
+      <c r="C24" s="88"/>
+      <c r="D24" s="87" t="s">
         <v>261</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="61"/>
-    </row>
-    <row r="2" ht="14.25" spans="1:9">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="62"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="21" t="s">
-        <v>238</v>
-      </c>
-      <c r="B3" s="76" t="s">
-        <v>239</v>
-      </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="85"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="78"/>
-      <c r="B4" s="79"/>
-      <c r="C4" s="79"/>
-      <c r="D4" s="79"/>
-      <c r="E4" s="79"/>
-      <c r="F4" s="79"/>
-      <c r="G4" s="79"/>
-      <c r="H4" s="79"/>
-      <c r="I4" s="86"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="78"/>
-      <c r="B5" s="79"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="86"/>
-    </row>
-    <row r="6" ht="14.25" spans="1:9">
-      <c r="A6" s="50"/>
-      <c r="B6" s="80"/>
-      <c r="C6" s="80"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="87"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="52" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="81" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="81" t="s">
+      <c r="E24" s="88"/>
+      <c r="F24" s="87" t="s">
+        <v>262</v>
+      </c>
+      <c r="G24" s="88"/>
+      <c r="H24" s="87" t="s">
+        <v>263</v>
+      </c>
+      <c r="I24" s="89"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A25" s="38"/>
+      <c r="B25" s="27">
+        <v>8</v>
+      </c>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27">
         <v>6</v>
       </c>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
-      <c r="F7" s="81" t="s">
-        <v>7</v>
-      </c>
-      <c r="G7" s="81"/>
-      <c r="H7" s="81" t="s">
-        <v>8</v>
-      </c>
-      <c r="I7" s="88"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="23"/>
-      <c r="B8" s="42" t="s">
-        <v>240</v>
-      </c>
-      <c r="C8" s="82" t="s">
-        <v>241</v>
-      </c>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="42" t="s">
-        <v>242</v>
-      </c>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="I8" s="67"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="23"/>
-      <c r="B9" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="43" t="s">
-        <v>244</v>
-      </c>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="42" t="s">
-        <v>245</v>
-      </c>
-      <c r="G9" s="42"/>
-      <c r="H9" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="I9" s="67"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="23"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="43"/>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="67"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="23"/>
-      <c r="B11" s="42"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="43"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="67"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="23"/>
-      <c r="B12" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>247</v>
-      </c>
-      <c r="D12" s="43"/>
-      <c r="E12" s="43"/>
-      <c r="F12" s="42" t="s">
-        <v>248</v>
-      </c>
-      <c r="G12" s="42"/>
-      <c r="H12" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="I12" s="67"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="23"/>
-      <c r="B13" s="42"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="43"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="67"/>
-    </row>
-    <row r="14" ht="14.25" spans="1:9">
-      <c r="A14" s="46"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="47"/>
-      <c r="D14" s="47"/>
-      <c r="E14" s="47"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="68"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="I15" s="63"/>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="78"/>
-      <c r="B16" s="83" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="55" t="s">
-        <v>33</v>
-      </c>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="83" t="s">
-        <v>65</v>
-      </c>
-      <c r="I16" s="89"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="78"/>
-      <c r="B17" s="83" t="s">
-        <v>250</v>
-      </c>
-      <c r="C17" s="55" t="s">
-        <v>251</v>
-      </c>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="83" t="s">
-        <v>252</v>
-      </c>
-      <c r="I17" s="89"/>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="78"/>
-      <c r="B18" s="83" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="55" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-      <c r="H18" s="83" t="s">
-        <v>65</v>
-      </c>
-      <c r="I18" s="89"/>
-    </row>
-    <row r="19" spans="1:9">
-      <c r="A19" s="78"/>
-      <c r="B19" s="83" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="55" t="s">
-        <v>253</v>
-      </c>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="83" t="s">
-        <v>252</v>
-      </c>
-      <c r="I19" s="89"/>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="A20" s="78"/>
-      <c r="B20" s="83" t="s">
-        <v>254</v>
-      </c>
-      <c r="C20" s="55" t="s">
+      <c r="E25" s="27"/>
+      <c r="F25" s="27">
+        <v>0</v>
+      </c>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27">
+        <v>2</v>
+      </c>
+      <c r="I25" s="28"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26" s="35" t="s">
         <v>255</v>
       </c>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="83" t="s">
-        <v>65</v>
-      </c>
-      <c r="I20" s="89"/>
-    </row>
-    <row r="21" spans="1:9">
-      <c r="A21" s="78"/>
-      <c r="B21" s="83" t="s">
-        <v>40</v>
-      </c>
-      <c r="C21" s="55" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="83" t="s">
-        <v>65</v>
-      </c>
-      <c r="I21" s="89"/>
-    </row>
-    <row r="22" spans="1:9">
-      <c r="A22" s="78"/>
-      <c r="B22" s="83" t="s">
-        <v>42</v>
-      </c>
-      <c r="C22" s="55" t="s">
-        <v>257</v>
-      </c>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="83" t="s">
-        <v>65</v>
-      </c>
-      <c r="I22" s="89"/>
-    </row>
-    <row r="23" ht="14.25" spans="1:9">
-      <c r="A23" s="56"/>
-      <c r="B23" s="84" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="57" t="s">
+      <c r="B26" s="79" t="s">
+        <v>264</v>
+      </c>
+      <c r="C26" s="80"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="81"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A27" s="36"/>
+      <c r="B27" s="23"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="82"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A28" s="31"/>
+      <c r="B28" s="83"/>
+      <c r="C28" s="83"/>
+      <c r="D28" s="83"/>
+      <c r="E28" s="83"/>
+      <c r="F28" s="83"/>
+      <c r="G28" s="83"/>
+      <c r="H28" s="83"/>
+      <c r="I28" s="84"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A29" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="D23" s="57"/>
-      <c r="E23" s="57"/>
-      <c r="F23" s="57"/>
-      <c r="G23" s="57"/>
-      <c r="H23" s="84" t="s">
-        <v>65</v>
-      </c>
-      <c r="I23" s="90"/>
-    </row>
-    <row r="24" spans="1:9">
-      <c r="A24" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="B24" s="48" t="s">
-        <v>263</v>
-      </c>
-      <c r="C24" s="49"/>
-      <c r="D24" s="48" t="s">
-        <v>264</v>
-      </c>
-      <c r="E24" s="49"/>
-      <c r="F24" s="48" t="s">
+      <c r="B29" s="72" t="s">
         <v>265</v>
       </c>
-      <c r="G24" s="49"/>
-      <c r="H24" s="48" t="s">
-        <v>266</v>
-      </c>
-      <c r="I24" s="69"/>
-    </row>
-    <row r="25" ht="14.25" spans="1:9">
-      <c r="A25" s="50"/>
-      <c r="B25" s="51">
-        <v>8</v>
-      </c>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51">
-        <v>6</v>
-      </c>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51">
-        <v>0</v>
-      </c>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51">
-        <v>2</v>
-      </c>
-      <c r="I25" s="70"/>
-    </row>
-    <row r="26" spans="1:9">
-      <c r="A26" s="52" t="s">
-        <v>258</v>
-      </c>
-      <c r="B26" s="53" t="s">
-        <v>267</v>
-      </c>
-      <c r="C26" s="54"/>
-      <c r="D26" s="54"/>
-      <c r="E26" s="54"/>
-      <c r="F26" s="54"/>
-      <c r="G26" s="54"/>
-      <c r="H26" s="54"/>
-      <c r="I26" s="71"/>
-    </row>
-    <row r="27" spans="1:9">
-      <c r="A27" s="23"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="55"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="72"/>
-    </row>
-    <row r="28" ht="14.25" spans="1:9">
-      <c r="A28" s="56"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="57"/>
-      <c r="F28" s="57"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="73"/>
-    </row>
-    <row r="29" spans="1:9">
-      <c r="A29" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="B29" s="59" t="s">
-        <v>268</v>
-      </c>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="74"/>
-    </row>
-    <row r="30" ht="14.25" spans="1:9">
-      <c r="A30" s="50"/>
-      <c r="B30" s="60"/>
-      <c r="C30" s="60"/>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
-      <c r="G30" s="60"/>
-      <c r="H30" s="60"/>
+      <c r="C29" s="72"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="72"/>
+      <c r="F29" s="72"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="72"/>
+      <c r="I29" s="73"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A30" s="38"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="74"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="74"/>
+      <c r="H30" s="74"/>
       <c r="I30" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="50">
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A14"/>
-    <mergeCell ref="A15:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A28"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="B12:B14"/>
@@ -7742,288 +7126,347 @@
     <mergeCell ref="H12:I14"/>
     <mergeCell ref="B26:I28"/>
     <mergeCell ref="B29:I30"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A14"/>
+    <mergeCell ref="A15:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14:I16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="9" style="16"/>
+    <col min="1" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="42" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="44"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="45"/>
+      <c r="B2" s="46"/>
+      <c r="C2" s="46"/>
+      <c r="D2" s="46"/>
+      <c r="E2" s="46"/>
+      <c r="F2" s="46"/>
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="47"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="22"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="36"/>
+      <c r="B4" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="96" t="s">
+        <v>267</v>
+      </c>
+      <c r="D4" s="97"/>
+      <c r="E4" s="98"/>
+      <c r="F4" s="92" t="s">
+        <v>268</v>
+      </c>
+      <c r="G4" s="93"/>
+      <c r="H4" s="92" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" s="107"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="36"/>
+      <c r="B5" s="90"/>
+      <c r="C5" s="99"/>
+      <c r="D5" s="100"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="95"/>
+      <c r="H5" s="94"/>
+      <c r="I5" s="108"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="36"/>
+      <c r="B6" s="91"/>
+      <c r="C6" s="102"/>
+      <c r="D6" s="103"/>
+      <c r="E6" s="104"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="109"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="36"/>
+      <c r="B7" s="40" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="68" t="s">
         <v>269</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="61"/>
-    </row>
-    <row r="2" ht="14.25" spans="1:9">
-      <c r="A2" s="19"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="62"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="21" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="22" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="22"/>
-      <c r="E3" s="22"/>
-      <c r="F3" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="22" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="63"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="23"/>
-      <c r="B4" s="24" t="s">
+      <c r="D7" s="68"/>
+      <c r="E7" s="68"/>
+      <c r="F7" s="92" t="s">
+        <v>268</v>
+      </c>
+      <c r="G7" s="93"/>
+      <c r="H7" s="57" t="s">
+        <v>62</v>
+      </c>
+      <c r="I7" s="56"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="36"/>
+      <c r="B8" s="40"/>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="95"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="56"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="36"/>
+      <c r="B9" s="40"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="95"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="56"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A10" s="36"/>
+      <c r="B10" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="C10" s="68" t="s">
+        <v>271</v>
+      </c>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="92" t="s">
+        <v>268</v>
+      </c>
+      <c r="G10" s="93"/>
+      <c r="H10" s="69" t="s">
+        <v>62</v>
+      </c>
+      <c r="I10" s="56"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A11" s="37"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="70"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="70"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="95"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="71"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A12" s="29" t="s">
+        <v>259</v>
+      </c>
+      <c r="B12" s="87" t="s">
+        <v>260</v>
+      </c>
+      <c r="C12" s="88"/>
+      <c r="D12" s="87" t="s">
+        <v>261</v>
+      </c>
+      <c r="E12" s="88"/>
+      <c r="F12" s="87" t="s">
+        <v>262</v>
+      </c>
+      <c r="G12" s="88"/>
+      <c r="H12" s="87" t="s">
+        <v>263</v>
+      </c>
+      <c r="I12" s="89"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A13" s="38"/>
+      <c r="B13" s="27">
         <v>13</v>
       </c>
-      <c r="C4" s="25" t="s">
-        <v>270</v>
-      </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="G4" s="29"/>
-      <c r="H4" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="I4" s="64"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="23"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="31"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="35"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="65"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="23"/>
-      <c r="B6" s="36"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="40"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="66"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="23"/>
-      <c r="B7" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="43" t="s">
+      <c r="C13" s="27"/>
+      <c r="D13" s="27">
+        <v>9</v>
+      </c>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27">
+        <v>2</v>
+      </c>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27">
+        <v>2</v>
+      </c>
+      <c r="I13" s="28"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A14" s="35" t="s">
+        <v>255</v>
+      </c>
+      <c r="B14" s="79" t="s">
         <v>272</v>
       </c>
-      <c r="D7" s="43"/>
-      <c r="E7" s="43"/>
-      <c r="F7" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="G7" s="29"/>
-      <c r="H7" s="44" t="s">
-        <v>65</v>
-      </c>
-      <c r="I7" s="67"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="23"/>
-      <c r="B8" s="42"/>
-      <c r="C8" s="43"/>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="44"/>
-      <c r="I8" s="67"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="23"/>
-      <c r="B9" s="42"/>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="43"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="35"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="67"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="23"/>
-      <c r="B10" s="42" t="s">
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="80"/>
+      <c r="G14" s="80"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="81"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A15" s="36"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="82"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A16" s="31"/>
+      <c r="B16" s="83"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="84"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A17" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17" s="72" t="s">
         <v>273</v>
       </c>
-      <c r="C10" s="43" t="s">
-        <v>274</v>
-      </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="28" t="s">
-        <v>271</v>
-      </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="45" t="s">
-        <v>65</v>
-      </c>
-      <c r="I10" s="67"/>
-    </row>
-    <row r="11" ht="14.25" spans="1:9">
-      <c r="A11" s="46"/>
-      <c r="B11" s="24"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="68"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="21" t="s">
-        <v>262</v>
-      </c>
-      <c r="B12" s="48" t="s">
-        <v>263</v>
-      </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="48" t="s">
-        <v>264</v>
-      </c>
-      <c r="E12" s="49"/>
-      <c r="F12" s="48" t="s">
-        <v>265</v>
-      </c>
-      <c r="G12" s="49"/>
-      <c r="H12" s="48" t="s">
-        <v>266</v>
-      </c>
-      <c r="I12" s="69"/>
-    </row>
-    <row r="13" ht="14.25" spans="1:9">
-      <c r="A13" s="50"/>
-      <c r="B13" s="51">
-        <v>13</v>
-      </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51">
-        <v>9</v>
-      </c>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51">
-        <v>2</v>
-      </c>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51">
-        <v>2</v>
-      </c>
-      <c r="I13" s="70"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="52" t="s">
-        <v>258</v>
-      </c>
-      <c r="B14" s="53" t="s">
-        <v>275</v>
-      </c>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
-      <c r="H14" s="54"/>
-      <c r="I14" s="71"/>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="23"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="55"/>
-      <c r="I15" s="72"/>
-    </row>
-    <row r="16" ht="14.25" spans="1:9">
-      <c r="A16" s="56"/>
-      <c r="B16" s="57"/>
-      <c r="C16" s="57"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="57"/>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="73"/>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" s="58" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="59" t="s">
-        <v>276</v>
-      </c>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="74"/>
-    </row>
-    <row r="18" ht="14.25" spans="1:9">
-      <c r="A18" s="50"/>
-      <c r="B18" s="60"/>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
-      <c r="E18" s="60"/>
-      <c r="F18" s="60"/>
-      <c r="G18" s="60"/>
-      <c r="H18" s="60"/>
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="72"/>
+      <c r="F17" s="72"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="72"/>
+      <c r="I17" s="73"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A18" s="38"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="74"/>
+      <c r="D18" s="74"/>
+      <c r="E18" s="74"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="74"/>
+      <c r="H18" s="74"/>
       <c r="I18" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="C7:E9"/>
+    <mergeCell ref="F7:G9"/>
+    <mergeCell ref="H7:I9"/>
+    <mergeCell ref="C4:E6"/>
+    <mergeCell ref="F4:G6"/>
+    <mergeCell ref="H4:I6"/>
+    <mergeCell ref="A14:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B14:I16"/>
+    <mergeCell ref="B17:I18"/>
+    <mergeCell ref="C10:E11"/>
+    <mergeCell ref="F10:G11"/>
+    <mergeCell ref="H10:I11"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="A3:A11"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
@@ -8031,95 +7474,71 @@
     <mergeCell ref="D12:E12"/>
     <mergeCell ref="F12:G12"/>
     <mergeCell ref="H12:I12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="F13:G13"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="A3:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="C7:E9"/>
-    <mergeCell ref="F7:G9"/>
-    <mergeCell ref="H7:I9"/>
-    <mergeCell ref="C4:E6"/>
-    <mergeCell ref="F4:G6"/>
-    <mergeCell ref="H4:I6"/>
-    <mergeCell ref="B14:I16"/>
-    <mergeCell ref="B17:I18"/>
-    <mergeCell ref="C10:E11"/>
-    <mergeCell ref="F10:G11"/>
-    <mergeCell ref="H10:I11"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:7">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A1" s="110" t="s">
+        <v>274</v>
+      </c>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="112"/>
+    </row>
+    <row r="2" spans="1:7" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="B2" s="113" t="s">
+        <v>276</v>
+      </c>
+      <c r="C2" s="113"/>
+      <c r="D2" s="113"/>
+      <c r="E2" s="113"/>
+      <c r="F2" s="113"/>
+      <c r="G2" s="114"/>
+    </row>
+    <row r="3" spans="1:7" ht="62" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="8"/>
-    </row>
-    <row r="2" ht="48" customHeight="1" spans="1:7">
-      <c r="A2" s="9" t="s">
+      <c r="B3" s="113" t="s">
         <v>278</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="C3" s="113"/>
+      <c r="D3" s="113"/>
+      <c r="E3" s="113"/>
+      <c r="F3" s="113"/>
+      <c r="G3" s="114"/>
+    </row>
+    <row r="4" spans="1:7" ht="76" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="11"/>
-    </row>
-    <row r="3" ht="62" customHeight="1" spans="1:7">
-      <c r="A3" s="9" t="s">
+      <c r="B4" s="115" t="s">
         <v>280</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>281</v>
-      </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" ht="76" customHeight="1" spans="1:7">
-      <c r="A4" s="12" t="s">
-        <v>282</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>283</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="15"/>
+      <c r="C4" s="116"/>
+      <c r="D4" s="116"/>
+      <c r="E4" s="116"/>
+      <c r="F4" s="116"/>
+      <c r="G4" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8128,55 +7547,54 @@
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B4:G4"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A32" sqref="A32:A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="5.125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="10.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.1640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="5.1640625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="10.33203125" style="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D2" s="3">
         <v>42532</v>
@@ -8185,15 +7603,15 @@
         <v>42533</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D3" s="3">
         <v>42532</v>
@@ -8202,15 +7620,15 @@
         <v>42533</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D4" s="3">
         <v>42532</v>
@@ -8219,15 +7637,15 @@
         <v>42533</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D5" s="3">
         <v>42532</v>
@@ -8236,15 +7654,15 @@
         <v>42533</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D6" s="3">
         <v>42532</v>
@@ -8253,15 +7671,15 @@
         <v>42533</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D7" s="3">
         <v>42532</v>
@@ -8270,49 +7688,49 @@
         <v>42533</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D8" s="3">
         <v>42532</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D9" s="3">
         <v>42532</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D10" s="3">
         <v>42545</v>
@@ -8321,15 +7739,15 @@
         <v>42545</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D11" s="3">
         <v>42545</v>
@@ -8338,32 +7756,32 @@
         <v>42545</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D12" s="3">
         <v>42545</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="13" ht="14.25" spans="1:5">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D13" s="3">
         <v>42549</v>
@@ -8372,26 +7790,26 @@
         <v>42555</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D14" s="3">
         <v>42549</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D15" s="3">
         <v>42551</v>
@@ -8400,32 +7818,32 @@
         <v>42554</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="D16" s="3">
         <v>42551</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D17" s="3">
         <v>42554</v>
@@ -8434,15 +7852,15 @@
         <v>42555</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D18" s="3">
         <v>42555</v>
@@ -8451,15 +7869,15 @@
         <v>42555</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D19" s="3">
         <v>42555</v>
@@ -8468,15 +7886,15 @@
         <v>42555</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D20" s="3">
         <v>42555</v>
@@ -8485,15 +7903,15 @@
         <v>42555</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D21" s="3">
         <v>42555</v>
@@ -8502,15 +7920,15 @@
         <v>42555</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D22" s="3">
         <v>42555</v>
@@ -8519,15 +7937,15 @@
         <v>42555</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D23" s="3">
         <v>42555</v>
@@ -8536,15 +7954,15 @@
         <v>42555</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D24" s="3">
         <v>42555</v>
@@ -8553,15 +7971,15 @@
         <v>42555</v>
       </c>
     </row>
-    <row r="25" ht="14.25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D25" s="3">
         <v>42555</v>
@@ -8570,15 +7988,15 @@
         <v>42555</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D26" s="3">
         <v>42555</v>
@@ -8587,15 +8005,15 @@
         <v>42555</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D27" s="3">
         <v>42555</v>
@@ -8604,15 +8022,15 @@
         <v>42555</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D28" s="3">
         <v>42555</v>
@@ -8621,15 +8039,15 @@
         <v>42555</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D29" s="3">
         <v>42557</v>
@@ -8638,15 +8056,15 @@
         <v>42559</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D30" s="3">
         <v>42567</v>
@@ -8655,15 +8073,15 @@
         <v>42568</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D31" s="3">
         <v>42567</v>
@@ -8672,15 +8090,15 @@
         <v>42569</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D32" s="3">
         <v>42568</v>
@@ -8689,15 +8107,15 @@
         <v>42569</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D33" s="3">
         <v>42568</v>
@@ -8706,15 +8124,15 @@
         <v>42569</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D34" s="3">
         <v>42570</v>
@@ -8724,8 +8142,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/doc/01平台/版本规划.xlsx
+++ b/doc/01平台/版本规划.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="673" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="327">
   <si>
     <t>微信接入7-8月份项目规划</t>
   </si>
@@ -1118,6 +1118,10 @@
     <rPh sb="3" eb="4">
       <t>gong zhong hao</t>
     </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>✔</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -4777,7 +4781,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -4813,6 +4817,9 @@
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A5" s="18" t="s">
         <v>325</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>326</v>
       </c>
     </row>
   </sheetData>

--- a/doc/01平台/版本规划.xlsx
+++ b/doc/01平台/版本规划.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="327">
   <si>
     <t>微信接入7-8月份项目规划</t>
   </si>
@@ -4781,7 +4781,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -4812,6 +4812,9 @@
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A4" s="18" t="s">
         <v>324</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.15">

--- a/doc/01平台/版本规划.xlsx
+++ b/doc/01平台/版本规划.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="675" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="327">
   <si>
     <t>微信接入7-8月份项目规划</t>
   </si>
@@ -4781,7 +4781,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -4807,6 +4807,9 @@
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A3" s="18" t="s">
         <v>49</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.15">

--- a/doc/01平台/版本规划.xlsx
+++ b/doc/01平台/版本规划.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="327">
   <si>
     <t>微信接入7-8月份项目规划</t>
   </si>
@@ -4781,7 +4781,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -4802,6 +4802,9 @@
     <row r="2" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A2" s="18" t="s">
         <v>48</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.15">

--- a/doc/01平台/版本规划.xlsx
+++ b/doc/01平台/版本规划.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="677" uniqueCount="327">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="330">
   <si>
     <t>微信接入7-8月份项目规划</t>
   </si>
@@ -1123,6 +1123,15 @@
   <si>
     <t>✔</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>这里的账户余额能不能显示他的实时余额</t>
+  </si>
+  <si>
+    <t>这样客服复制这条+快捷短语，就可以完美地告知用户了</t>
+  </si>
+  <si>
+    <t>第二点：来源用户后面加一个复制按钮～提示内容加一个复制按钮～</t>
   </si>
 </sst>
 </file>
@@ -4778,10 +4787,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A8" sqref="A8:XFD9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -4829,6 +4838,21 @@
       </c>
       <c r="B5" s="1" t="s">
         <v>326</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A6" s="18" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A7" s="18" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A8" s="18" t="s">
+        <v>329</v>
       </c>
     </row>
   </sheetData>

--- a/doc/01平台/版本规划.xlsx
+++ b/doc/01平台/版本规划.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目规划" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="332">
   <si>
     <t>微信接入7-8月份项目规划</t>
   </si>
@@ -1132,6 +1132,41 @@
   </si>
   <si>
     <t>第二点：来源用户后面加一个复制按钮～提示内容加一个复制按钮～</t>
+  </si>
+  <si>
+    <t>密码变更提示语修改</t>
+    <rPh sb="0" eb="1">
+      <t>mi ma</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>bian geng</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ti shi yu</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>xiu gai</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>查询帐号历史租赁信息</t>
+    <rPh sb="0" eb="1">
+      <t>cha xun</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>zhang hao</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>li shi</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>zu lin</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>xin xi</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1837,6 +1872,156 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1849,144 +2034,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="5" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="5" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1996,44 +2043,41 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2041,73 +2085,64 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4121,617 +4156,636 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="44"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="21"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="45"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="47"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="24"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="50"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="27"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="30"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="29"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="30"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="52"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="29"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="31"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="53"/>
-      <c r="G6" s="53"/>
-      <c r="H6" s="53"/>
-      <c r="I6" s="54"/>
+      <c r="A6" s="56"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="31"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="31"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="54"/>
+      <c r="A7" s="56"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="31"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60"/>
-      <c r="H8" s="60"/>
-      <c r="I8" s="61"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="36"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="I8" s="37"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="33"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="63"/>
-      <c r="G9" s="63"/>
-      <c r="H9" s="63"/>
-      <c r="I9" s="64"/>
+      <c r="A9" s="58"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="39"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="40"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="33"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="63"/>
-      <c r="F10" s="63"/>
-      <c r="G10" s="63"/>
-      <c r="H10" s="63"/>
-      <c r="I10" s="64"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="39"/>
+      <c r="D10" s="39"/>
+      <c r="E10" s="39"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
+      <c r="I10" s="40"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="33"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="64"/>
+      <c r="A11" s="58"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="39"/>
+      <c r="D11" s="39"/>
+      <c r="E11" s="39"/>
+      <c r="F11" s="39"/>
+      <c r="G11" s="39"/>
+      <c r="H11" s="39"/>
+      <c r="I11" s="40"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="33"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="64"/>
+      <c r="A12" s="58"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="40"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="34"/>
-      <c r="B13" s="65"/>
-      <c r="C13" s="66"/>
-      <c r="D13" s="66"/>
-      <c r="E13" s="66"/>
-      <c r="F13" s="66"/>
-      <c r="G13" s="66"/>
-      <c r="H13" s="66"/>
-      <c r="I13" s="67"/>
+      <c r="A13" s="59"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="43"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="60" t="s">
         <v>4</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19" t="s">
+      <c r="D14" s="69"/>
+      <c r="E14" s="69"/>
+      <c r="F14" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="19"/>
-      <c r="H14" s="19" t="s">
+      <c r="G14" s="69"/>
+      <c r="H14" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="I14" s="20"/>
+      <c r="I14" s="70"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="36"/>
-      <c r="B15" s="40" t="s">
+      <c r="A15" s="61"/>
+      <c r="B15" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="55" t="s">
+      <c r="C15" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="D15" s="55"/>
-      <c r="E15" s="55"/>
-      <c r="F15" s="40" t="s">
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="40"/>
-      <c r="H15" s="40" t="s">
+      <c r="G15" s="33"/>
+      <c r="H15" s="33" t="s">
         <v>322</v>
       </c>
-      <c r="I15" s="56"/>
+      <c r="I15" s="34"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="36"/>
-      <c r="B16" s="40"/>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="55"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
-      <c r="H16" s="40"/>
-      <c r="I16" s="56"/>
+      <c r="A16" s="61"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="34"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="36"/>
-      <c r="B17" s="40" t="s">
+      <c r="A17" s="61"/>
+      <c r="B17" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="55" t="s">
+      <c r="C17" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="D17" s="55"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="40" t="s">
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="G17" s="40"/>
-      <c r="H17" s="57" t="s">
+      <c r="G17" s="33"/>
+      <c r="H17" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="I17" s="58"/>
+      <c r="I17" s="64"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="36"/>
-      <c r="B18" s="40"/>
-      <c r="C18" s="55"/>
-      <c r="D18" s="55"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="58"/>
+      <c r="A18" s="61"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="64"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="36"/>
-      <c r="B19" s="40"/>
-      <c r="C19" s="55"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="55"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="40"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="58"/>
+      <c r="A19" s="61"/>
+      <c r="B19" s="33"/>
+      <c r="C19" s="32"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="64"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="36"/>
-      <c r="B20" s="40"/>
-      <c r="C20" s="55"/>
-      <c r="D20" s="55"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="40"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="58"/>
+      <c r="A20" s="61"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="32"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="33"/>
+      <c r="G20" s="33"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="64"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="36"/>
-      <c r="B21" s="40"/>
-      <c r="C21" s="55"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="40"/>
-      <c r="G21" s="40"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="58"/>
+      <c r="A21" s="61"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="32"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="33"/>
+      <c r="G21" s="33"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="64"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="36"/>
-      <c r="B22" s="40" t="s">
+      <c r="A22" s="61"/>
+      <c r="B22" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="55" t="s">
+      <c r="C22" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="40" t="s">
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="G22" s="40"/>
-      <c r="H22" s="57" t="s">
+      <c r="G22" s="33"/>
+      <c r="H22" s="63" t="s">
         <v>321</v>
       </c>
-      <c r="I22" s="58"/>
+      <c r="I22" s="64"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="36"/>
-      <c r="B23" s="40"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="58"/>
+      <c r="A23" s="61"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="64"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="36"/>
-      <c r="B24" s="40"/>
-      <c r="C24" s="55"/>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="40"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="58"/>
+      <c r="A24" s="61"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="64"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="36"/>
-      <c r="B25" s="40" t="s">
+      <c r="A25" s="61"/>
+      <c r="B25" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="55" t="s">
+      <c r="C25" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="40" t="s">
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="G25" s="40"/>
-      <c r="H25" s="40" t="s">
+      <c r="G25" s="33"/>
+      <c r="H25" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="I25" s="56"/>
+      <c r="I25" s="34"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="36"/>
-      <c r="B26" s="40"/>
-      <c r="C26" s="55"/>
-      <c r="D26" s="55"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40"/>
-      <c r="H26" s="40"/>
-      <c r="I26" s="56"/>
+      <c r="A26" s="61"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="32"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="34"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="36"/>
-      <c r="B27" s="40" t="s">
+      <c r="A27" s="61"/>
+      <c r="B27" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C27" s="68" t="s">
+      <c r="C27" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="40" t="s">
+      <c r="D27" s="65"/>
+      <c r="E27" s="65"/>
+      <c r="F27" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="G27" s="40"/>
-      <c r="H27" s="69" t="s">
+      <c r="G27" s="33"/>
+      <c r="H27" s="73" t="s">
         <v>323</v>
       </c>
-      <c r="I27" s="56"/>
+      <c r="I27" s="34"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="36"/>
-      <c r="B28" s="40"/>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40"/>
-      <c r="H28" s="69"/>
-      <c r="I28" s="56"/>
+      <c r="A28" s="61"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="34"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="36"/>
-      <c r="B29" s="40"/>
-      <c r="C29" s="68"/>
-      <c r="D29" s="68"/>
-      <c r="E29" s="68"/>
-      <c r="F29" s="40"/>
-      <c r="G29" s="40"/>
-      <c r="H29" s="69"/>
-      <c r="I29" s="56"/>
+      <c r="A29" s="61"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="65"/>
+      <c r="E29" s="65"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="73"/>
+      <c r="I29" s="34"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="36"/>
-      <c r="B30" s="40"/>
-      <c r="C30" s="68"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="56"/>
+      <c r="A30" s="61"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="65"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="34"/>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A31" s="36"/>
-      <c r="B31" s="40"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="68"/>
-      <c r="F31" s="40"/>
-      <c r="G31" s="40"/>
-      <c r="H31" s="40"/>
-      <c r="I31" s="56"/>
+      <c r="A31" s="61"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="65"/>
+      <c r="E31" s="65"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="34"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A32" s="36"/>
-      <c r="B32" s="40" t="s">
+      <c r="A32" s="61"/>
+      <c r="B32" s="33" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="68" t="s">
+      <c r="C32" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="68"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="40" t="s">
+      <c r="D32" s="65"/>
+      <c r="E32" s="65"/>
+      <c r="F32" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="G32" s="40"/>
-      <c r="H32" s="69" t="s">
+      <c r="G32" s="33"/>
+      <c r="H32" s="73" t="s">
         <v>15</v>
       </c>
-      <c r="I32" s="56"/>
+      <c r="I32" s="34"/>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A33" s="36"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="68"/>
-      <c r="D33" s="68"/>
-      <c r="E33" s="68"/>
-      <c r="F33" s="40"/>
-      <c r="G33" s="40"/>
-      <c r="H33" s="69"/>
-      <c r="I33" s="56"/>
+      <c r="A33" s="61"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="73"/>
+      <c r="I33" s="34"/>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A34" s="37"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="71"/>
+      <c r="A34" s="62"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="74"/>
+      <c r="D34" s="74"/>
+      <c r="E34" s="74"/>
+      <c r="F34" s="46"/>
+      <c r="G34" s="46"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="75"/>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A35" s="29" t="s">
+      <c r="A35" s="54" t="s">
         <v>28</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C35" s="21" t="s">
+      <c r="C35" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="21"/>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
-      <c r="H35" s="21" t="s">
+      <c r="D35" s="71"/>
+      <c r="E35" s="71"/>
+      <c r="F35" s="71"/>
+      <c r="G35" s="71"/>
+      <c r="H35" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="I35" s="22"/>
+      <c r="I35" s="72"/>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A36" s="30"/>
+      <c r="A36" s="55"/>
       <c r="B36" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="23" t="s">
+      <c r="C36" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="24" t="s">
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="I36" s="25"/>
+      <c r="I36" s="68"/>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A37" s="30"/>
+      <c r="A37" s="55"/>
       <c r="B37" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="23" t="s">
+      <c r="C37" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="24" t="s">
+      <c r="D37" s="66"/>
+      <c r="E37" s="66"/>
+      <c r="F37" s="66"/>
+      <c r="G37" s="66"/>
+      <c r="H37" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="I37" s="25"/>
+      <c r="I37" s="68"/>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A38" s="30"/>
+      <c r="A38" s="55"/>
       <c r="B38" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C38" s="23" t="s">
+      <c r="C38" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="24" t="s">
+      <c r="D38" s="66"/>
+      <c r="E38" s="66"/>
+      <c r="F38" s="66"/>
+      <c r="G38" s="66"/>
+      <c r="H38" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="I38" s="25"/>
+      <c r="I38" s="68"/>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A39" s="30"/>
+      <c r="A39" s="55"/>
       <c r="B39" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C39" s="23" t="s">
+      <c r="C39" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="D39" s="23"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="24" t="s">
+      <c r="D39" s="66"/>
+      <c r="E39" s="66"/>
+      <c r="F39" s="66"/>
+      <c r="G39" s="66"/>
+      <c r="H39" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="I39" s="25"/>
+      <c r="I39" s="68"/>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A40" s="30"/>
+      <c r="A40" s="55"/>
       <c r="B40" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="23" t="s">
+      <c r="C40" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="D40" s="23"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="24" t="s">
+      <c r="D40" s="66"/>
+      <c r="E40" s="66"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="66"/>
+      <c r="H40" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="I40" s="25"/>
+      <c r="I40" s="68"/>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A41" s="30"/>
+      <c r="A41" s="55"/>
       <c r="B41" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C41" s="23" t="s">
+      <c r="C41" s="66" t="s">
         <v>42</v>
       </c>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="24" t="s">
+      <c r="D41" s="66"/>
+      <c r="E41" s="66"/>
+      <c r="F41" s="66"/>
+      <c r="G41" s="66"/>
+      <c r="H41" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="I41" s="25"/>
+      <c r="I41" s="68"/>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A42" s="38"/>
+      <c r="A42" s="45"/>
       <c r="B42" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C42" s="26" t="s">
+      <c r="C42" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="26"/>
-      <c r="H42" s="27" t="s">
+      <c r="D42" s="51"/>
+      <c r="E42" s="51"/>
+      <c r="F42" s="51"/>
+      <c r="G42" s="51"/>
+      <c r="H42" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="I42" s="28"/>
+      <c r="I42" s="53"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A43" s="39" t="s">
+      <c r="A43" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B43" s="72" t="s">
+      <c r="B43" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="C43" s="72"/>
-      <c r="D43" s="72"/>
-      <c r="E43" s="72"/>
-      <c r="F43" s="72"/>
-      <c r="G43" s="72"/>
-      <c r="H43" s="72"/>
-      <c r="I43" s="73"/>
+      <c r="C43" s="47"/>
+      <c r="D43" s="47"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="47"/>
+      <c r="G43" s="47"/>
+      <c r="H43" s="47"/>
+      <c r="I43" s="48"/>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A44" s="38"/>
-      <c r="B44" s="74"/>
-      <c r="C44" s="74"/>
-      <c r="D44" s="74"/>
-      <c r="E44" s="74"/>
-      <c r="F44" s="74"/>
-      <c r="G44" s="74"/>
-      <c r="H44" s="74"/>
-      <c r="I44" s="75"/>
+      <c r="A44" s="45"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="49"/>
+      <c r="D44" s="49"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="49"/>
+      <c r="G44" s="49"/>
+      <c r="H44" s="49"/>
+      <c r="I44" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="52">
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="B3:I7"/>
-    <mergeCell ref="C15:E16"/>
-    <mergeCell ref="F15:G16"/>
-    <mergeCell ref="H15:I16"/>
-    <mergeCell ref="B8:I13"/>
+    <mergeCell ref="C41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="C36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="C37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="C27:E31"/>
+    <mergeCell ref="C39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="C40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="C35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="F27:G31"/>
+    <mergeCell ref="H27:I31"/>
+    <mergeCell ref="C32:E34"/>
+    <mergeCell ref="F32:G34"/>
+    <mergeCell ref="H32:I34"/>
+    <mergeCell ref="F17:G21"/>
+    <mergeCell ref="H17:I21"/>
+    <mergeCell ref="C25:E26"/>
+    <mergeCell ref="F25:G26"/>
+    <mergeCell ref="H25:I26"/>
     <mergeCell ref="A43:A44"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="B17:B21"/>
@@ -4742,42 +4796,23 @@
     <mergeCell ref="B43:I44"/>
     <mergeCell ref="C42:G42"/>
     <mergeCell ref="H42:I42"/>
-    <mergeCell ref="A3:A7"/>
-    <mergeCell ref="A8:A13"/>
     <mergeCell ref="A14:A34"/>
     <mergeCell ref="A35:A42"/>
     <mergeCell ref="C22:E24"/>
     <mergeCell ref="F22:G24"/>
     <mergeCell ref="H22:I24"/>
     <mergeCell ref="C17:E21"/>
-    <mergeCell ref="F17:G21"/>
-    <mergeCell ref="H17:I21"/>
-    <mergeCell ref="C25:E26"/>
-    <mergeCell ref="F25:G26"/>
-    <mergeCell ref="H25:I26"/>
-    <mergeCell ref="C27:E31"/>
-    <mergeCell ref="C39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="C40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="C41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="C36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="C37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="C38:G38"/>
-    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="B3:I7"/>
+    <mergeCell ref="C15:E16"/>
+    <mergeCell ref="F15:G16"/>
+    <mergeCell ref="H15:I16"/>
+    <mergeCell ref="B8:I13"/>
+    <mergeCell ref="A3:A7"/>
+    <mergeCell ref="A8:A13"/>
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="H14:I14"/>
-    <mergeCell ref="C35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="F27:G31"/>
-    <mergeCell ref="H27:I31"/>
-    <mergeCell ref="C32:E34"/>
-    <mergeCell ref="F32:G34"/>
-    <mergeCell ref="H32:I34"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -4787,10 +4822,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD9"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.15"/>
@@ -4853,6 +4888,16 @@
     <row r="8" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A8" s="18" t="s">
         <v>329</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A9" s="18" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A10" s="18" t="s">
+        <v>331</v>
       </c>
     </row>
   </sheetData>
@@ -6225,433 +6270,419 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="19" t="s">
         <v>234</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="44"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="21"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="45"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="47"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="24"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="54" t="s">
         <v>235</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="25" t="s">
         <v>236</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="50"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="27"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="30"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="29"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="30"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="52"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="29"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="38"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="78"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="83"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="60" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19" t="s">
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19" t="s">
+      <c r="G7" s="69"/>
+      <c r="H7" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="20"/>
+      <c r="I7" s="70"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="36"/>
+      <c r="A8" s="61"/>
       <c r="B8" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="84" t="s">
         <v>238</v>
       </c>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="40" t="s">
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="33" t="s">
         <v>239</v>
       </c>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40" t="s">
+      <c r="G8" s="33"/>
+      <c r="H8" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="56"/>
+      <c r="I8" s="34"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="36"/>
-      <c r="B9" s="40" t="s">
+      <c r="A9" s="61"/>
+      <c r="B9" s="33" t="s">
         <v>240</v>
       </c>
-      <c r="C9" s="68" t="s">
+      <c r="C9" s="65" t="s">
         <v>241</v>
       </c>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="40" t="s">
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="G9" s="40"/>
-      <c r="H9" s="57" t="s">
+      <c r="G9" s="33"/>
+      <c r="H9" s="63" t="s">
         <v>243</v>
       </c>
-      <c r="I9" s="56"/>
+      <c r="I9" s="34"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="36"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="56"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="34"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="36"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="56"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="34"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="36"/>
-      <c r="B12" s="40" t="s">
+      <c r="A12" s="61"/>
+      <c r="B12" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="68" t="s">
+      <c r="C12" s="65" t="s">
         <v>244</v>
       </c>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="40" t="s">
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="33" t="s">
         <v>245</v>
       </c>
-      <c r="G12" s="40"/>
-      <c r="H12" s="69" t="s">
+      <c r="G12" s="33"/>
+      <c r="H12" s="73" t="s">
         <v>246</v>
       </c>
-      <c r="I12" s="56"/>
+      <c r="I12" s="34"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="36"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="56"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="34"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="37"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="71"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="75"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="54" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21" t="s">
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="22"/>
+      <c r="I15" s="72"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="30"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="24" t="s">
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="I16" s="25"/>
+      <c r="I16" s="68"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="30"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="66" t="s">
         <v>248</v>
       </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="24" t="s">
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="67" t="s">
         <v>249</v>
       </c>
-      <c r="I17" s="25"/>
+      <c r="I17" s="68"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="30"/>
+      <c r="A18" s="55"/>
       <c r="B18" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="24" t="s">
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="I18" s="25"/>
+      <c r="I18" s="68"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="30"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="66" t="s">
         <v>250</v>
       </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="24" t="s">
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="67" t="s">
         <v>249</v>
       </c>
-      <c r="I19" s="25"/>
+      <c r="I19" s="68"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="30"/>
+      <c r="A20" s="55"/>
       <c r="B20" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="66" t="s">
         <v>252</v>
       </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="24" t="s">
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="67" t="s">
         <v>253</v>
       </c>
-      <c r="I20" s="25"/>
+      <c r="I20" s="68"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="30"/>
+      <c r="A21" s="55"/>
       <c r="B21" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="24" t="s">
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="I21" s="25"/>
+      <c r="I21" s="68"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="30"/>
+      <c r="A22" s="55"/>
       <c r="B22" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="66" t="s">
         <v>254</v>
       </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="24" t="s">
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="I22" s="25"/>
+      <c r="I22" s="68"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="38"/>
+      <c r="A23" s="45"/>
       <c r="B23" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="26" t="s">
+      <c r="C23" s="51" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="27" t="s">
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="52" t="s">
         <v>62</v>
       </c>
-      <c r="I23" s="28"/>
+      <c r="I23" s="53"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="60" t="s">
         <v>255</v>
       </c>
-      <c r="B24" s="79" t="s">
+      <c r="B24" s="76" t="s">
         <v>256</v>
       </c>
-      <c r="C24" s="80"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="80"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="81"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="77"/>
+      <c r="G24" s="77"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="78"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="36"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="82"/>
+      <c r="A25" s="61"/>
+      <c r="B25" s="66"/>
+      <c r="C25" s="66"/>
+      <c r="D25" s="66"/>
+      <c r="E25" s="66"/>
+      <c r="F25" s="66"/>
+      <c r="G25" s="66"/>
+      <c r="H25" s="66"/>
+      <c r="I25" s="79"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="31"/>
-      <c r="B26" s="83"/>
-      <c r="C26" s="83"/>
-      <c r="D26" s="83"/>
-      <c r="E26" s="83"/>
-      <c r="F26" s="83"/>
-      <c r="G26" s="83"/>
-      <c r="H26" s="83"/>
-      <c r="I26" s="84"/>
+      <c r="A26" s="56"/>
+      <c r="B26" s="80"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="80"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="80"/>
+      <c r="G26" s="80"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="81"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="39" t="s">
+      <c r="A27" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="72" t="s">
+      <c r="B27" s="47" t="s">
         <v>257</v>
       </c>
-      <c r="C27" s="72"/>
-      <c r="D27" s="72"/>
-      <c r="E27" s="72"/>
-      <c r="F27" s="72"/>
-      <c r="G27" s="72"/>
-      <c r="H27" s="72"/>
-      <c r="I27" s="73"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="48"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="38"/>
-      <c r="B28" s="74"/>
-      <c r="C28" s="74"/>
-      <c r="D28" s="74"/>
-      <c r="E28" s="74"/>
-      <c r="F28" s="74"/>
-      <c r="G28" s="74"/>
-      <c r="H28" s="74"/>
-      <c r="I28" s="75"/>
+      <c r="A28" s="45"/>
+      <c r="B28" s="49"/>
+      <c r="C28" s="49"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
+      <c r="G28" s="49"/>
+      <c r="H28" s="49"/>
+      <c r="I28" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="41">
-    <mergeCell ref="B24:I26"/>
-    <mergeCell ref="B27:I28"/>
-    <mergeCell ref="B9:B11"/>
-    <mergeCell ref="B12:B14"/>
-    <mergeCell ref="B3:I6"/>
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="F9:G11"/>
-    <mergeCell ref="H9:I11"/>
-    <mergeCell ref="C9:E11"/>
-    <mergeCell ref="F12:G14"/>
-    <mergeCell ref="H12:I14"/>
-    <mergeCell ref="C12:E14"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="A7:A14"/>
     <mergeCell ref="A15:A23"/>
     <mergeCell ref="A24:A26"/>
     <mergeCell ref="A27:A28"/>
@@ -6668,17 +6699,31 @@
     <mergeCell ref="C20:G20"/>
     <mergeCell ref="H20:I20"/>
     <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="F9:G11"/>
+    <mergeCell ref="H9:I11"/>
+    <mergeCell ref="C9:E11"/>
+    <mergeCell ref="F12:G14"/>
+    <mergeCell ref="H12:I14"/>
+    <mergeCell ref="C12:E14"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="A7:A14"/>
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="H7:I7"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="H8:I8"/>
+    <mergeCell ref="B24:I26"/>
+    <mergeCell ref="B27:I28"/>
+    <mergeCell ref="B9:B11"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B3:I6"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:I17"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -6700,459 +6745,493 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="44"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="21"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="45"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="47"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="24"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="54" t="s">
         <v>235</v>
       </c>
-      <c r="B3" s="48" t="s">
+      <c r="B3" s="25" t="s">
         <v>236</v>
       </c>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="50"/>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="27"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="30"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
-      <c r="H4" s="51"/>
-      <c r="I4" s="52"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="29"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="30"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="52"/>
+      <c r="A5" s="55"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="29"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="38"/>
-      <c r="B6" s="77"/>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="78"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="82"/>
+      <c r="C6" s="82"/>
+      <c r="D6" s="82"/>
+      <c r="E6" s="82"/>
+      <c r="F6" s="82"/>
+      <c r="G6" s="82"/>
+      <c r="H6" s="82"/>
+      <c r="I6" s="83"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="35" t="s">
+      <c r="A7" s="60" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="19"/>
-      <c r="F7" s="19" t="s">
+      <c r="D7" s="69"/>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="19"/>
-      <c r="H7" s="19" t="s">
+      <c r="G7" s="69"/>
+      <c r="H7" s="69" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="20"/>
+      <c r="I7" s="70"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="36"/>
+      <c r="A8" s="61"/>
       <c r="B8" s="10" t="s">
         <v>237</v>
       </c>
-      <c r="C8" s="76" t="s">
+      <c r="C8" s="84" t="s">
         <v>238</v>
       </c>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="40" t="s">
+      <c r="D8" s="84"/>
+      <c r="E8" s="84"/>
+      <c r="F8" s="33" t="s">
         <v>239</v>
       </c>
-      <c r="G8" s="40"/>
-      <c r="H8" s="40" t="s">
+      <c r="G8" s="33"/>
+      <c r="H8" s="33" t="s">
         <v>62</v>
       </c>
-      <c r="I8" s="56"/>
+      <c r="I8" s="34"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="36"/>
-      <c r="B9" s="40" t="s">
+      <c r="A9" s="61"/>
+      <c r="B9" s="33" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="68" t="s">
+      <c r="C9" s="65" t="s">
         <v>241</v>
       </c>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="40" t="s">
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="33" t="s">
         <v>242</v>
       </c>
-      <c r="G9" s="40"/>
-      <c r="H9" s="57" t="s">
+      <c r="G9" s="33"/>
+      <c r="H9" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="I9" s="56"/>
+      <c r="I9" s="34"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="36"/>
-      <c r="B10" s="40"/>
-      <c r="C10" s="68"/>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="56"/>
+      <c r="A10" s="61"/>
+      <c r="B10" s="33"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="34"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="36"/>
-      <c r="B11" s="40"/>
-      <c r="C11" s="68"/>
-      <c r="D11" s="68"/>
-      <c r="E11" s="68"/>
-      <c r="F11" s="40"/>
-      <c r="G11" s="40"/>
-      <c r="H11" s="40"/>
-      <c r="I11" s="56"/>
+      <c r="A11" s="61"/>
+      <c r="B11" s="33"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="34"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="36"/>
-      <c r="B12" s="40" t="s">
+      <c r="A12" s="61"/>
+      <c r="B12" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="68" t="s">
+      <c r="C12" s="65" t="s">
         <v>244</v>
       </c>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="40" t="s">
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="33" t="s">
         <v>245</v>
       </c>
-      <c r="G12" s="40"/>
-      <c r="H12" s="69" t="s">
+      <c r="G12" s="33"/>
+      <c r="H12" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="I12" s="56"/>
+      <c r="I12" s="34"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="36"/>
-      <c r="B13" s="40"/>
-      <c r="C13" s="68"/>
-      <c r="D13" s="68"/>
-      <c r="E13" s="68"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="40"/>
-      <c r="H13" s="40"/>
-      <c r="I13" s="56"/>
+      <c r="A13" s="61"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="34"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="37"/>
-      <c r="B14" s="41"/>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="71"/>
+      <c r="A14" s="62"/>
+      <c r="B14" s="46"/>
+      <c r="C14" s="74"/>
+      <c r="D14" s="74"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="46"/>
+      <c r="G14" s="46"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="75"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="54" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="21" t="s">
+      <c r="C15" s="71" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="21"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="21" t="s">
+      <c r="D15" s="71"/>
+      <c r="E15" s="71"/>
+      <c r="F15" s="71"/>
+      <c r="G15" s="71"/>
+      <c r="H15" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="I15" s="22"/>
+      <c r="I15" s="72"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="30"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="C16" s="23" t="s">
+      <c r="C16" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="24" t="s">
+      <c r="D16" s="66"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="66"/>
+      <c r="H16" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="I16" s="25"/>
+      <c r="I16" s="68"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="30"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="C17" s="23" t="s">
+      <c r="C17" s="66" t="s">
         <v>248</v>
       </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="24" t="s">
+      <c r="D17" s="66"/>
+      <c r="E17" s="66"/>
+      <c r="F17" s="66"/>
+      <c r="G17" s="66"/>
+      <c r="H17" s="67" t="s">
         <v>249</v>
       </c>
-      <c r="I17" s="25"/>
+      <c r="I17" s="68"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="30"/>
+      <c r="A18" s="55"/>
       <c r="B18" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="24" t="s">
+      <c r="D18" s="66"/>
+      <c r="E18" s="66"/>
+      <c r="F18" s="66"/>
+      <c r="G18" s="66"/>
+      <c r="H18" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="I18" s="25"/>
+      <c r="I18" s="68"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A19" s="30"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="66" t="s">
         <v>250</v>
       </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="24" t="s">
+      <c r="D19" s="66"/>
+      <c r="E19" s="66"/>
+      <c r="F19" s="66"/>
+      <c r="G19" s="66"/>
+      <c r="H19" s="67" t="s">
         <v>249</v>
       </c>
-      <c r="I19" s="25"/>
+      <c r="I19" s="68"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A20" s="30"/>
+      <c r="A20" s="55"/>
       <c r="B20" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="C20" s="23" t="s">
+      <c r="C20" s="66" t="s">
         <v>252</v>
       </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="24" t="s">
+      <c r="D20" s="66"/>
+      <c r="E20" s="66"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="I20" s="25"/>
+      <c r="I20" s="68"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A21" s="30"/>
+      <c r="A21" s="55"/>
       <c r="B21" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="24" t="s">
+      <c r="D21" s="66"/>
+      <c r="E21" s="66"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="I21" s="25"/>
+      <c r="I21" s="68"/>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A22" s="30"/>
+      <c r="A22" s="55"/>
       <c r="B22" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="66" t="s">
         <v>254</v>
       </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="24" t="s">
+      <c r="D22" s="66"/>
+      <c r="E22" s="66"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="67" t="s">
         <v>62</v>
       </c>
-      <c r="I22" s="25"/>
+      <c r="I22" s="68"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A23" s="31"/>
+      <c r="A23" s="56"/>
       <c r="B23" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="83" t="s">
+      <c r="C23" s="80" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="83"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="85" t="s">
+      <c r="D23" s="80"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="80"/>
+      <c r="G23" s="80"/>
+      <c r="H23" s="88" t="s">
         <v>62</v>
       </c>
-      <c r="I23" s="86"/>
+      <c r="I23" s="89"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="54" t="s">
         <v>259</v>
       </c>
-      <c r="B24" s="87" t="s">
+      <c r="B24" s="85" t="s">
         <v>260</v>
       </c>
-      <c r="C24" s="88"/>
-      <c r="D24" s="87" t="s">
+      <c r="C24" s="86"/>
+      <c r="D24" s="85" t="s">
         <v>261</v>
       </c>
-      <c r="E24" s="88"/>
-      <c r="F24" s="87" t="s">
+      <c r="E24" s="86"/>
+      <c r="F24" s="85" t="s">
         <v>262</v>
       </c>
-      <c r="G24" s="88"/>
-      <c r="H24" s="87" t="s">
+      <c r="G24" s="86"/>
+      <c r="H24" s="85" t="s">
         <v>263</v>
       </c>
-      <c r="I24" s="89"/>
+      <c r="I24" s="87"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A25" s="38"/>
-      <c r="B25" s="27">
+      <c r="A25" s="45"/>
+      <c r="B25" s="52">
         <v>8</v>
       </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="27">
+      <c r="C25" s="52"/>
+      <c r="D25" s="52">
         <v>6</v>
       </c>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27">
+      <c r="E25" s="52"/>
+      <c r="F25" s="52">
         <v>0</v>
       </c>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27">
+      <c r="G25" s="52"/>
+      <c r="H25" s="52">
         <v>2</v>
       </c>
-      <c r="I25" s="28"/>
+      <c r="I25" s="53"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A26" s="35" t="s">
+      <c r="A26" s="60" t="s">
         <v>255</v>
       </c>
-      <c r="B26" s="79" t="s">
+      <c r="B26" s="76" t="s">
         <v>264</v>
       </c>
-      <c r="C26" s="80"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="80"/>
-      <c r="G26" s="80"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="81"/>
+      <c r="C26" s="77"/>
+      <c r="D26" s="77"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="77"/>
+      <c r="G26" s="77"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="78"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A27" s="36"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="82"/>
+      <c r="A27" s="61"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="66"/>
+      <c r="F27" s="66"/>
+      <c r="G27" s="66"/>
+      <c r="H27" s="66"/>
+      <c r="I27" s="79"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A28" s="31"/>
-      <c r="B28" s="83"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="83"/>
-      <c r="E28" s="83"/>
-      <c r="F28" s="83"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="83"/>
-      <c r="I28" s="84"/>
+      <c r="A28" s="56"/>
+      <c r="B28" s="80"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="80"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="80"/>
+      <c r="G28" s="80"/>
+      <c r="H28" s="80"/>
+      <c r="I28" s="81"/>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A29" s="39" t="s">
+      <c r="A29" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B29" s="72" t="s">
+      <c r="B29" s="47" t="s">
         <v>265</v>
       </c>
-      <c r="C29" s="72"/>
-      <c r="D29" s="72"/>
-      <c r="E29" s="72"/>
-      <c r="F29" s="72"/>
-      <c r="G29" s="72"/>
-      <c r="H29" s="72"/>
-      <c r="I29" s="73"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="48"/>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A30" s="38"/>
-      <c r="B30" s="74"/>
-      <c r="C30" s="74"/>
-      <c r="D30" s="74"/>
-      <c r="E30" s="74"/>
-      <c r="F30" s="74"/>
-      <c r="G30" s="74"/>
-      <c r="H30" s="74"/>
-      <c r="I30" s="75"/>
+      <c r="A30" s="45"/>
+      <c r="B30" s="49"/>
+      <c r="C30" s="49"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
+      <c r="G30" s="49"/>
+      <c r="H30" s="49"/>
+      <c r="I30" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="50">
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:G8"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="C15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="C16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="C19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="C20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="C21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="C22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="C23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
     <mergeCell ref="A29:A30"/>
     <mergeCell ref="B9:B11"/>
     <mergeCell ref="B12:B14"/>
@@ -7169,40 +7248,6 @@
     <mergeCell ref="A3:A6"/>
     <mergeCell ref="A7:A14"/>
     <mergeCell ref="A15:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="C21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="C22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="C23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="C19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="C20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="C15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="C16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:G7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:I8"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
@@ -7223,274 +7268,271 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="19" t="s">
         <v>266</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="44"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="21"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="45"/>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="47"/>
+      <c r="A2" s="22"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="24"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="54" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21" t="s">
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21" t="s">
+      <c r="G3" s="71"/>
+      <c r="H3" s="71" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="22"/>
+      <c r="I3" s="72"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="36"/>
-      <c r="B4" s="41" t="s">
+      <c r="A4" s="61"/>
+      <c r="B4" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="96" t="s">
+      <c r="C4" s="94" t="s">
         <v>267</v>
       </c>
-      <c r="D4" s="97"/>
-      <c r="E4" s="98"/>
-      <c r="F4" s="92" t="s">
+      <c r="D4" s="95"/>
+      <c r="E4" s="96"/>
+      <c r="F4" s="90" t="s">
         <v>268</v>
       </c>
-      <c r="G4" s="93"/>
-      <c r="H4" s="92" t="s">
+      <c r="G4" s="91"/>
+      <c r="H4" s="90" t="s">
         <v>62</v>
       </c>
-      <c r="I4" s="107"/>
+      <c r="I4" s="105"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="36"/>
-      <c r="B5" s="90"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="95"/>
-      <c r="H5" s="94"/>
-      <c r="I5" s="108"/>
+      <c r="A5" s="61"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="99"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="92"/>
+      <c r="I5" s="106"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="36"/>
-      <c r="B6" s="91"/>
-      <c r="C6" s="102"/>
-      <c r="D6" s="103"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="105"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="105"/>
-      <c r="I6" s="109"/>
+      <c r="A6" s="61"/>
+      <c r="B6" s="109"/>
+      <c r="C6" s="100"/>
+      <c r="D6" s="101"/>
+      <c r="E6" s="102"/>
+      <c r="F6" s="103"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="103"/>
+      <c r="I6" s="107"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="36"/>
-      <c r="B7" s="40" t="s">
+      <c r="A7" s="61"/>
+      <c r="B7" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="68" t="s">
+      <c r="C7" s="65" t="s">
         <v>269</v>
       </c>
-      <c r="D7" s="68"/>
-      <c r="E7" s="68"/>
-      <c r="F7" s="92" t="s">
+      <c r="D7" s="65"/>
+      <c r="E7" s="65"/>
+      <c r="F7" s="90" t="s">
         <v>268</v>
       </c>
-      <c r="G7" s="93"/>
-      <c r="H7" s="57" t="s">
+      <c r="G7" s="91"/>
+      <c r="H7" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="I7" s="56"/>
+      <c r="I7" s="34"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="36"/>
-      <c r="B8" s="40"/>
-      <c r="C8" s="68"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="95"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="56"/>
+      <c r="A8" s="61"/>
+      <c r="B8" s="33"/>
+      <c r="C8" s="65"/>
+      <c r="D8" s="65"/>
+      <c r="E8" s="65"/>
+      <c r="F8" s="92"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="63"/>
+      <c r="I8" s="34"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="36"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="95"/>
-      <c r="H9" s="40"/>
-      <c r="I9" s="56"/>
+      <c r="A9" s="61"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="65"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="34"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A10" s="36"/>
-      <c r="B10" s="40" t="s">
+      <c r="A10" s="61"/>
+      <c r="B10" s="33" t="s">
         <v>270</v>
       </c>
-      <c r="C10" s="68" t="s">
+      <c r="C10" s="65" t="s">
         <v>271</v>
       </c>
-      <c r="D10" s="68"/>
-      <c r="E10" s="68"/>
-      <c r="F10" s="92" t="s">
+      <c r="D10" s="65"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="90" t="s">
         <v>268</v>
       </c>
-      <c r="G10" s="93"/>
-      <c r="H10" s="69" t="s">
+      <c r="G10" s="91"/>
+      <c r="H10" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="I10" s="56"/>
+      <c r="I10" s="34"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A11" s="37"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="70"/>
-      <c r="D11" s="70"/>
-      <c r="E11" s="70"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="71"/>
+      <c r="A11" s="62"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="74"/>
+      <c r="D11" s="74"/>
+      <c r="E11" s="74"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="75"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A12" s="29" t="s">
+      <c r="A12" s="54" t="s">
         <v>259</v>
       </c>
-      <c r="B12" s="87" t="s">
+      <c r="B12" s="85" t="s">
         <v>260</v>
       </c>
-      <c r="C12" s="88"/>
-      <c r="D12" s="87" t="s">
+      <c r="C12" s="86"/>
+      <c r="D12" s="85" t="s">
         <v>261</v>
       </c>
-      <c r="E12" s="88"/>
-      <c r="F12" s="87" t="s">
+      <c r="E12" s="86"/>
+      <c r="F12" s="85" t="s">
         <v>262</v>
       </c>
-      <c r="G12" s="88"/>
-      <c r="H12" s="87" t="s">
+      <c r="G12" s="86"/>
+      <c r="H12" s="85" t="s">
         <v>263</v>
       </c>
-      <c r="I12" s="89"/>
+      <c r="I12" s="87"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A13" s="38"/>
-      <c r="B13" s="27">
+      <c r="A13" s="45"/>
+      <c r="B13" s="52">
         <v>13</v>
       </c>
-      <c r="C13" s="27"/>
-      <c r="D13" s="27">
+      <c r="C13" s="52"/>
+      <c r="D13" s="52">
         <v>9</v>
       </c>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27">
+      <c r="E13" s="52"/>
+      <c r="F13" s="52">
         <v>2</v>
       </c>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27">
+      <c r="G13" s="52"/>
+      <c r="H13" s="52">
         <v>2</v>
       </c>
-      <c r="I13" s="28"/>
+      <c r="I13" s="53"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A14" s="35" t="s">
+      <c r="A14" s="60" t="s">
         <v>255</v>
       </c>
-      <c r="B14" s="79" t="s">
+      <c r="B14" s="76" t="s">
         <v>272</v>
       </c>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="80"/>
-      <c r="G14" s="80"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="81"/>
+      <c r="C14" s="77"/>
+      <c r="D14" s="77"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="77"/>
+      <c r="G14" s="77"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="78"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A15" s="36"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="82"/>
+      <c r="A15" s="61"/>
+      <c r="B15" s="66"/>
+      <c r="C15" s="66"/>
+      <c r="D15" s="66"/>
+      <c r="E15" s="66"/>
+      <c r="F15" s="66"/>
+      <c r="G15" s="66"/>
+      <c r="H15" s="66"/>
+      <c r="I15" s="79"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A16" s="31"/>
-      <c r="B16" s="83"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="84"/>
+      <c r="A16" s="56"/>
+      <c r="B16" s="80"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="80"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="80"/>
+      <c r="G16" s="80"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="81"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A17" s="39" t="s">
+      <c r="A17" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="B17" s="72" t="s">
+      <c r="B17" s="47" t="s">
         <v>273</v>
       </c>
-      <c r="C17" s="72"/>
-      <c r="D17" s="72"/>
-      <c r="E17" s="72"/>
-      <c r="F17" s="72"/>
-      <c r="G17" s="72"/>
-      <c r="H17" s="72"/>
-      <c r="I17" s="73"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="47"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="47"/>
+      <c r="H17" s="47"/>
+      <c r="I17" s="48"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A18" s="38"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="74"/>
-      <c r="D18" s="74"/>
-      <c r="E18" s="74"/>
-      <c r="F18" s="74"/>
-      <c r="G18" s="74"/>
-      <c r="H18" s="74"/>
-      <c r="I18" s="75"/>
+      <c r="A18" s="45"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+      <c r="I18" s="50"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="A1:I2"/>
-    <mergeCell ref="C7:E9"/>
-    <mergeCell ref="F7:G9"/>
-    <mergeCell ref="H7:I9"/>
-    <mergeCell ref="C4:E6"/>
-    <mergeCell ref="F4:G6"/>
-    <mergeCell ref="H4:I6"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
     <mergeCell ref="A14:A16"/>
     <mergeCell ref="A17:A18"/>
     <mergeCell ref="B4:B6"/>
@@ -7507,13 +7549,16 @@
     <mergeCell ref="H13:I13"/>
     <mergeCell ref="A3:A11"/>
     <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A1:I2"/>
+    <mergeCell ref="C7:E9"/>
+    <mergeCell ref="F7:G9"/>
+    <mergeCell ref="H7:I9"/>
+    <mergeCell ref="C4:E6"/>
+    <mergeCell ref="F4:G6"/>
+    <mergeCell ref="H4:I6"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
